--- a/ExcelPln2/Input/supplier_input.xlsx
+++ b/ExcelPln2/Input/supplier_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11796" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="177">
   <si>
     <t>PropertyName</t>
   </si>
@@ -546,25 +546,6 @@
     <t>L&amp;M LOFT 1664</t>
   </si>
   <si>
-    <t>asasas</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>Pall Mall Crisp
-821</t>
-  </si>
-  <si>
-    <t>2539 PALL MALL BLUE POCKET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucky Strike BD Blue 25730 </t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>masterrange.Cells(i)</t>
   </si>
   <si>
@@ -587,6 +568,21 @@
   </si>
   <si>
     <t>JTI</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1019,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1123,9 +1119,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,6 +1127,20 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1159,20 +1166,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="26" fillId="10" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="=D:\WINNT\SYSTEM32\COMMAND.COM" xfId="4"/>
@@ -1556,17 +1549,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1047750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1584,8 +1577,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5572125" y="847725"/>
-          <a:ext cx="571500" cy="1047750"/>
+          <a:off x="9286875" y="1143000"/>
+          <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,17 +1612,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="552450" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1647,8 +1640,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6172200" y="876300"/>
-          <a:ext cx="552450" cy="1000125"/>
+          <a:off x="8677275" y="1143000"/>
+          <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,17 +1675,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="904875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Obraz 275"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1710,8 +1703,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6838950" y="876300"/>
-          <a:ext cx="590550" cy="1076325"/>
+          <a:off x="8115300" y="1143000"/>
+          <a:ext cx="485775" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,17 +1738,17 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="885825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Obraz 259"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1773,8 +1766,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8143875" y="942975"/>
-          <a:ext cx="485775" cy="885825"/>
+          <a:off x="4371975" y="1143000"/>
+          <a:ext cx="609600" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1808,36 +1801,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8648700" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666750" cy="990600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Obraz 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4924425" y="1143000"/>
+          <a:ext cx="666750" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,666 +1864,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9286875" y="1143000"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8677275" y="1143000"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9286875" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="904875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Obraz 275"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8115300" y="1143000"/>
-          <a:ext cx="485775" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666750" cy="923925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3705225" y="952500"/>
-          <a:ext cx="666750" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 17"/>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="523875" cy="819150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 301"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4371975" y="1143000"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638175" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Obraz 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5029200" y="904875"/>
-          <a:ext cx="638175" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4371975" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4371975" y="952500"/>
-          <a:ext cx="609600" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666750" cy="990600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="1143000"/>
-          <a:ext cx="666750" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="514350" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 299"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10467975" y="838200"/>
-          <a:ext cx="514350" cy="952500"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11077575" y="1114425"/>
+          <a:ext cx="523875" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2559,36 +1922,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="514350" cy="809625"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 298"/>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="523875" cy="971550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 302"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11096625" y="952500"/>
-          <a:ext cx="514350" cy="809625"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10487025" y="1038225"/>
+          <a:ext cx="523875" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,35 +1981,35 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="742950" cy="866775"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 300"/>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771525" cy="866775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 315"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11639550" y="942975"/>
-          <a:ext cx="742950" cy="866775"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11896725" y="1143000"/>
+          <a:ext cx="771525" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2675,36 +2038,351 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="990600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13582650" y="1123950"/>
+          <a:ext cx="628650" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="523875" cy="819150"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 301"/>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="981075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 72"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11077575" y="1114425"/>
-          <a:ext cx="523875" cy="819150"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12906375" y="1143000"/>
+          <a:ext cx="619125" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="571500" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5572125" y="1038225"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552450" cy="1000125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6172200" y="1066800"/>
+          <a:ext cx="552450" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="1066800"/>
+          <a:ext cx="590550" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="638175" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 321"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12287250" y="1143000"/>
+          <a:ext cx="638175" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,36 +2411,792 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="895350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9934575" y="1143000"/>
+          <a:ext cx="600075" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="657225" cy="923925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3848100" y="1143000"/>
+          <a:ext cx="657225" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="561975" cy="1000125"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2124075" y="1123950"/>
+          <a:ext cx="561975" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2619375" y="1047750"/>
+          <a:ext cx="600075" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 137" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="1133475"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 138" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1095375" y="1143000"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 141" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="1114425"/>
+          <a:ext cx="276225" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="266700" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 142" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1724025" y="1123950"/>
+          <a:ext cx="266700" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="628650" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3200400" y="1143000"/>
+          <a:ext cx="628650" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="523875" cy="971550"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 302"/>
+    <xdr:ext cx="590550" cy="1076325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7572375" y="1038225"/>
+          <a:ext cx="590550" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="666750" cy="990600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Obraz 94"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10487025" y="1038225"/>
-          <a:ext cx="523875" cy="971550"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3048000" y="1143000"/>
+          <a:ext cx="666750" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="904875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Obraz 275"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2680854" y="1143000"/>
+          <a:ext cx="485775" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 299"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1550670" y="5314950"/>
+          <a:ext cx="619125" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2791,36 +3225,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="771525" cy="866775"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 315"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 299"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11896725" y="1143000"/>
-          <a:ext cx="771525" cy="866775"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1550670" y="5314950"/>
+          <a:ext cx="619125" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2841,1891 +3275,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="885825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 68"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12915900" y="952500"/>
-          <a:ext cx="609600" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="885825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 69"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13525500" y="952500"/>
-          <a:ext cx="609600" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="628650" cy="990600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 76"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13582650" y="1123950"/>
-          <a:ext cx="628650" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="619125" cy="981075"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12906375" y="1143000"/>
-          <a:ext cx="619125" cy="981075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1047750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="1038225"/>
-          <a:ext cx="571500" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="552450" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6172200" y="1066800"/>
-          <a:ext cx="552450" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6838950" y="1066800"/>
-          <a:ext cx="590550" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="561975" cy="933450"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12344400" y="952500"/>
-          <a:ext cx="561975" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="638175" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 321"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12287250" y="1143000"/>
-          <a:ext cx="638175" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="A6A6A6"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="895350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934575" y="1143000"/>
-          <a:ext cx="600075" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="609600" cy="904875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 55"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9934575" y="952500"/>
-          <a:ext cx="609600" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="657225" cy="923925"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3848100" y="1143000"/>
-          <a:ext cx="657225" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="1057275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 126"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1971675" y="933450"/>
-          <a:ext cx="600075" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="561975" cy="1000125"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2124075" y="1123950"/>
-          <a:ext cx="561975" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="1009650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="952500"/>
-          <a:ext cx="571500" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="600075" cy="1047750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 107"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2619375" y="1047750"/>
-          <a:ext cx="600075" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="266700" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 137" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="781050" y="1133475"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="266700" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 138" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Lilas Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1095375" y="1143000"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 139" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1352550" y="895350"/>
-          <a:ext cx="276225" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="1085850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 140" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1695450" y="885825"/>
-          <a:ext cx="276225" cy="1085850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="276225" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 141" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1409700" y="1114425"/>
-          <a:ext cx="276225" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="266700" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 142" descr="C:\KAM\PRODUKTY\Zdjęcia\Vogue Menth Eclat Clic.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1724025" y="1123950"/>
-          <a:ext cx="266700" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="628650" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3238500" y="952500"/>
-          <a:ext cx="628650" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="628650" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3200400" y="1143000"/>
-          <a:ext cx="628650" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 87"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7572375" y="847725"/>
-          <a:ext cx="590550" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="590550" cy="1076325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 87"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7572375" y="1038225"/>
-          <a:ext cx="590550" cy="1076325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>536863</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="647700" cy="800100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="834737" y="955963"/>
-          <a:ext cx="647700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>377537</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>689263</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="647700" cy="800100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 104"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="987137" y="955963"/>
-          <a:ext cx="647700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="666750" cy="990600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Obraz 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3048000" y="1143000"/>
-          <a:ext cx="666750" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="904875"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Obraz 275"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2680854" y="1143000"/>
-          <a:ext cx="485775" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -11032,13 +9581,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11046,12 +9595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -11072,61 +9621,61 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>174</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="51">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="40">
         <v>1</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="41">
         <v>0.2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="53">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="42">
         <v>2</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="43">
         <v>0.3</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="51">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="40">
         <v>3</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="41">
         <v>0.5</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11143,836 +9692,836 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="50" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="1" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="23" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" customWidth="1"/>
-    <col min="21" max="23" width="15.7109375" customWidth="1"/>
-    <col min="257" max="269" width="15.7109375" customWidth="1"/>
-    <col min="270" max="270" width="17.5703125" customWidth="1"/>
-    <col min="271" max="271" width="16.85546875" customWidth="1"/>
-    <col min="272" max="272" width="17.5703125" customWidth="1"/>
-    <col min="273" max="273" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.44140625" customWidth="1"/>
+    <col min="21" max="23" width="15.6640625" customWidth="1"/>
+    <col min="257" max="269" width="15.6640625" customWidth="1"/>
+    <col min="270" max="270" width="17.5546875" customWidth="1"/>
+    <col min="271" max="271" width="16.88671875" customWidth="1"/>
+    <col min="272" max="272" width="17.5546875" customWidth="1"/>
+    <col min="273" max="273" width="15.6640625" customWidth="1"/>
     <col min="274" max="274" width="23" customWidth="1"/>
-    <col min="275" max="275" width="15.7109375" customWidth="1"/>
-    <col min="276" max="276" width="22.42578125" customWidth="1"/>
-    <col min="277" max="279" width="15.7109375" customWidth="1"/>
-    <col min="513" max="525" width="15.7109375" customWidth="1"/>
-    <col min="526" max="526" width="17.5703125" customWidth="1"/>
-    <col min="527" max="527" width="16.85546875" customWidth="1"/>
-    <col min="528" max="528" width="17.5703125" customWidth="1"/>
-    <col min="529" max="529" width="15.7109375" customWidth="1"/>
+    <col min="275" max="275" width="15.6640625" customWidth="1"/>
+    <col min="276" max="276" width="22.44140625" customWidth="1"/>
+    <col min="277" max="279" width="15.6640625" customWidth="1"/>
+    <col min="513" max="525" width="15.6640625" customWidth="1"/>
+    <col min="526" max="526" width="17.5546875" customWidth="1"/>
+    <col min="527" max="527" width="16.88671875" customWidth="1"/>
+    <col min="528" max="528" width="17.5546875" customWidth="1"/>
+    <col min="529" max="529" width="15.6640625" customWidth="1"/>
     <col min="530" max="530" width="23" customWidth="1"/>
-    <col min="531" max="531" width="15.7109375" customWidth="1"/>
-    <col min="532" max="532" width="22.42578125" customWidth="1"/>
-    <col min="533" max="535" width="15.7109375" customWidth="1"/>
-    <col min="769" max="781" width="15.7109375" customWidth="1"/>
-    <col min="782" max="782" width="17.5703125" customWidth="1"/>
-    <col min="783" max="783" width="16.85546875" customWidth="1"/>
-    <col min="784" max="784" width="17.5703125" customWidth="1"/>
-    <col min="785" max="785" width="15.7109375" customWidth="1"/>
+    <col min="531" max="531" width="15.6640625" customWidth="1"/>
+    <col min="532" max="532" width="22.44140625" customWidth="1"/>
+    <col min="533" max="535" width="15.6640625" customWidth="1"/>
+    <col min="769" max="781" width="15.6640625" customWidth="1"/>
+    <col min="782" max="782" width="17.5546875" customWidth="1"/>
+    <col min="783" max="783" width="16.88671875" customWidth="1"/>
+    <col min="784" max="784" width="17.5546875" customWidth="1"/>
+    <col min="785" max="785" width="15.6640625" customWidth="1"/>
     <col min="786" max="786" width="23" customWidth="1"/>
-    <col min="787" max="787" width="15.7109375" customWidth="1"/>
-    <col min="788" max="788" width="22.42578125" customWidth="1"/>
-    <col min="789" max="791" width="15.7109375" customWidth="1"/>
-    <col min="1025" max="1037" width="15.7109375" customWidth="1"/>
-    <col min="1038" max="1038" width="17.5703125" customWidth="1"/>
-    <col min="1039" max="1039" width="16.85546875" customWidth="1"/>
-    <col min="1040" max="1040" width="17.5703125" customWidth="1"/>
-    <col min="1041" max="1041" width="15.7109375" customWidth="1"/>
+    <col min="787" max="787" width="15.6640625" customWidth="1"/>
+    <col min="788" max="788" width="22.44140625" customWidth="1"/>
+    <col min="789" max="791" width="15.6640625" customWidth="1"/>
+    <col min="1025" max="1037" width="15.6640625" customWidth="1"/>
+    <col min="1038" max="1038" width="17.5546875" customWidth="1"/>
+    <col min="1039" max="1039" width="16.88671875" customWidth="1"/>
+    <col min="1040" max="1040" width="17.5546875" customWidth="1"/>
+    <col min="1041" max="1041" width="15.6640625" customWidth="1"/>
     <col min="1042" max="1042" width="23" customWidth="1"/>
-    <col min="1043" max="1043" width="15.7109375" customWidth="1"/>
-    <col min="1044" max="1044" width="22.42578125" customWidth="1"/>
-    <col min="1045" max="1047" width="15.7109375" customWidth="1"/>
-    <col min="1281" max="1293" width="15.7109375" customWidth="1"/>
-    <col min="1294" max="1294" width="17.5703125" customWidth="1"/>
-    <col min="1295" max="1295" width="16.85546875" customWidth="1"/>
-    <col min="1296" max="1296" width="17.5703125" customWidth="1"/>
-    <col min="1297" max="1297" width="15.7109375" customWidth="1"/>
+    <col min="1043" max="1043" width="15.6640625" customWidth="1"/>
+    <col min="1044" max="1044" width="22.44140625" customWidth="1"/>
+    <col min="1045" max="1047" width="15.6640625" customWidth="1"/>
+    <col min="1281" max="1293" width="15.6640625" customWidth="1"/>
+    <col min="1294" max="1294" width="17.5546875" customWidth="1"/>
+    <col min="1295" max="1295" width="16.88671875" customWidth="1"/>
+    <col min="1296" max="1296" width="17.5546875" customWidth="1"/>
+    <col min="1297" max="1297" width="15.6640625" customWidth="1"/>
     <col min="1298" max="1298" width="23" customWidth="1"/>
-    <col min="1299" max="1299" width="15.7109375" customWidth="1"/>
-    <col min="1300" max="1300" width="22.42578125" customWidth="1"/>
-    <col min="1301" max="1303" width="15.7109375" customWidth="1"/>
-    <col min="1537" max="1549" width="15.7109375" customWidth="1"/>
-    <col min="1550" max="1550" width="17.5703125" customWidth="1"/>
-    <col min="1551" max="1551" width="16.85546875" customWidth="1"/>
-    <col min="1552" max="1552" width="17.5703125" customWidth="1"/>
-    <col min="1553" max="1553" width="15.7109375" customWidth="1"/>
+    <col min="1299" max="1299" width="15.6640625" customWidth="1"/>
+    <col min="1300" max="1300" width="22.44140625" customWidth="1"/>
+    <col min="1301" max="1303" width="15.6640625" customWidth="1"/>
+    <col min="1537" max="1549" width="15.6640625" customWidth="1"/>
+    <col min="1550" max="1550" width="17.5546875" customWidth="1"/>
+    <col min="1551" max="1551" width="16.88671875" customWidth="1"/>
+    <col min="1552" max="1552" width="17.5546875" customWidth="1"/>
+    <col min="1553" max="1553" width="15.6640625" customWidth="1"/>
     <col min="1554" max="1554" width="23" customWidth="1"/>
-    <col min="1555" max="1555" width="15.7109375" customWidth="1"/>
-    <col min="1556" max="1556" width="22.42578125" customWidth="1"/>
-    <col min="1557" max="1559" width="15.7109375" customWidth="1"/>
-    <col min="1793" max="1805" width="15.7109375" customWidth="1"/>
-    <col min="1806" max="1806" width="17.5703125" customWidth="1"/>
-    <col min="1807" max="1807" width="16.85546875" customWidth="1"/>
-    <col min="1808" max="1808" width="17.5703125" customWidth="1"/>
-    <col min="1809" max="1809" width="15.7109375" customWidth="1"/>
+    <col min="1555" max="1555" width="15.6640625" customWidth="1"/>
+    <col min="1556" max="1556" width="22.44140625" customWidth="1"/>
+    <col min="1557" max="1559" width="15.6640625" customWidth="1"/>
+    <col min="1793" max="1805" width="15.6640625" customWidth="1"/>
+    <col min="1806" max="1806" width="17.5546875" customWidth="1"/>
+    <col min="1807" max="1807" width="16.88671875" customWidth="1"/>
+    <col min="1808" max="1808" width="17.5546875" customWidth="1"/>
+    <col min="1809" max="1809" width="15.6640625" customWidth="1"/>
     <col min="1810" max="1810" width="23" customWidth="1"/>
-    <col min="1811" max="1811" width="15.7109375" customWidth="1"/>
-    <col min="1812" max="1812" width="22.42578125" customWidth="1"/>
-    <col min="1813" max="1815" width="15.7109375" customWidth="1"/>
-    <col min="2049" max="2061" width="15.7109375" customWidth="1"/>
-    <col min="2062" max="2062" width="17.5703125" customWidth="1"/>
-    <col min="2063" max="2063" width="16.85546875" customWidth="1"/>
-    <col min="2064" max="2064" width="17.5703125" customWidth="1"/>
-    <col min="2065" max="2065" width="15.7109375" customWidth="1"/>
+    <col min="1811" max="1811" width="15.6640625" customWidth="1"/>
+    <col min="1812" max="1812" width="22.44140625" customWidth="1"/>
+    <col min="1813" max="1815" width="15.6640625" customWidth="1"/>
+    <col min="2049" max="2061" width="15.6640625" customWidth="1"/>
+    <col min="2062" max="2062" width="17.5546875" customWidth="1"/>
+    <col min="2063" max="2063" width="16.88671875" customWidth="1"/>
+    <col min="2064" max="2064" width="17.5546875" customWidth="1"/>
+    <col min="2065" max="2065" width="15.6640625" customWidth="1"/>
     <col min="2066" max="2066" width="23" customWidth="1"/>
-    <col min="2067" max="2067" width="15.7109375" customWidth="1"/>
-    <col min="2068" max="2068" width="22.42578125" customWidth="1"/>
-    <col min="2069" max="2071" width="15.7109375" customWidth="1"/>
-    <col min="2305" max="2317" width="15.7109375" customWidth="1"/>
-    <col min="2318" max="2318" width="17.5703125" customWidth="1"/>
-    <col min="2319" max="2319" width="16.85546875" customWidth="1"/>
-    <col min="2320" max="2320" width="17.5703125" customWidth="1"/>
-    <col min="2321" max="2321" width="15.7109375" customWidth="1"/>
+    <col min="2067" max="2067" width="15.6640625" customWidth="1"/>
+    <col min="2068" max="2068" width="22.44140625" customWidth="1"/>
+    <col min="2069" max="2071" width="15.6640625" customWidth="1"/>
+    <col min="2305" max="2317" width="15.6640625" customWidth="1"/>
+    <col min="2318" max="2318" width="17.5546875" customWidth="1"/>
+    <col min="2319" max="2319" width="16.88671875" customWidth="1"/>
+    <col min="2320" max="2320" width="17.5546875" customWidth="1"/>
+    <col min="2321" max="2321" width="15.6640625" customWidth="1"/>
     <col min="2322" max="2322" width="23" customWidth="1"/>
-    <col min="2323" max="2323" width="15.7109375" customWidth="1"/>
-    <col min="2324" max="2324" width="22.42578125" customWidth="1"/>
-    <col min="2325" max="2327" width="15.7109375" customWidth="1"/>
-    <col min="2561" max="2573" width="15.7109375" customWidth="1"/>
-    <col min="2574" max="2574" width="17.5703125" customWidth="1"/>
-    <col min="2575" max="2575" width="16.85546875" customWidth="1"/>
-    <col min="2576" max="2576" width="17.5703125" customWidth="1"/>
-    <col min="2577" max="2577" width="15.7109375" customWidth="1"/>
+    <col min="2323" max="2323" width="15.6640625" customWidth="1"/>
+    <col min="2324" max="2324" width="22.44140625" customWidth="1"/>
+    <col min="2325" max="2327" width="15.6640625" customWidth="1"/>
+    <col min="2561" max="2573" width="15.6640625" customWidth="1"/>
+    <col min="2574" max="2574" width="17.5546875" customWidth="1"/>
+    <col min="2575" max="2575" width="16.88671875" customWidth="1"/>
+    <col min="2576" max="2576" width="17.5546875" customWidth="1"/>
+    <col min="2577" max="2577" width="15.6640625" customWidth="1"/>
     <col min="2578" max="2578" width="23" customWidth="1"/>
-    <col min="2579" max="2579" width="15.7109375" customWidth="1"/>
-    <col min="2580" max="2580" width="22.42578125" customWidth="1"/>
-    <col min="2581" max="2583" width="15.7109375" customWidth="1"/>
-    <col min="2817" max="2829" width="15.7109375" customWidth="1"/>
-    <col min="2830" max="2830" width="17.5703125" customWidth="1"/>
-    <col min="2831" max="2831" width="16.85546875" customWidth="1"/>
-    <col min="2832" max="2832" width="17.5703125" customWidth="1"/>
-    <col min="2833" max="2833" width="15.7109375" customWidth="1"/>
+    <col min="2579" max="2579" width="15.6640625" customWidth="1"/>
+    <col min="2580" max="2580" width="22.44140625" customWidth="1"/>
+    <col min="2581" max="2583" width="15.6640625" customWidth="1"/>
+    <col min="2817" max="2829" width="15.6640625" customWidth="1"/>
+    <col min="2830" max="2830" width="17.5546875" customWidth="1"/>
+    <col min="2831" max="2831" width="16.88671875" customWidth="1"/>
+    <col min="2832" max="2832" width="17.5546875" customWidth="1"/>
+    <col min="2833" max="2833" width="15.6640625" customWidth="1"/>
     <col min="2834" max="2834" width="23" customWidth="1"/>
-    <col min="2835" max="2835" width="15.7109375" customWidth="1"/>
-    <col min="2836" max="2836" width="22.42578125" customWidth="1"/>
-    <col min="2837" max="2839" width="15.7109375" customWidth="1"/>
-    <col min="3073" max="3085" width="15.7109375" customWidth="1"/>
-    <col min="3086" max="3086" width="17.5703125" customWidth="1"/>
-    <col min="3087" max="3087" width="16.85546875" customWidth="1"/>
-    <col min="3088" max="3088" width="17.5703125" customWidth="1"/>
-    <col min="3089" max="3089" width="15.7109375" customWidth="1"/>
+    <col min="2835" max="2835" width="15.6640625" customWidth="1"/>
+    <col min="2836" max="2836" width="22.44140625" customWidth="1"/>
+    <col min="2837" max="2839" width="15.6640625" customWidth="1"/>
+    <col min="3073" max="3085" width="15.6640625" customWidth="1"/>
+    <col min="3086" max="3086" width="17.5546875" customWidth="1"/>
+    <col min="3087" max="3087" width="16.88671875" customWidth="1"/>
+    <col min="3088" max="3088" width="17.5546875" customWidth="1"/>
+    <col min="3089" max="3089" width="15.6640625" customWidth="1"/>
     <col min="3090" max="3090" width="23" customWidth="1"/>
-    <col min="3091" max="3091" width="15.7109375" customWidth="1"/>
-    <col min="3092" max="3092" width="22.42578125" customWidth="1"/>
-    <col min="3093" max="3095" width="15.7109375" customWidth="1"/>
-    <col min="3329" max="3341" width="15.7109375" customWidth="1"/>
-    <col min="3342" max="3342" width="17.5703125" customWidth="1"/>
-    <col min="3343" max="3343" width="16.85546875" customWidth="1"/>
-    <col min="3344" max="3344" width="17.5703125" customWidth="1"/>
-    <col min="3345" max="3345" width="15.7109375" customWidth="1"/>
+    <col min="3091" max="3091" width="15.6640625" customWidth="1"/>
+    <col min="3092" max="3092" width="22.44140625" customWidth="1"/>
+    <col min="3093" max="3095" width="15.6640625" customWidth="1"/>
+    <col min="3329" max="3341" width="15.6640625" customWidth="1"/>
+    <col min="3342" max="3342" width="17.5546875" customWidth="1"/>
+    <col min="3343" max="3343" width="16.88671875" customWidth="1"/>
+    <col min="3344" max="3344" width="17.5546875" customWidth="1"/>
+    <col min="3345" max="3345" width="15.6640625" customWidth="1"/>
     <col min="3346" max="3346" width="23" customWidth="1"/>
-    <col min="3347" max="3347" width="15.7109375" customWidth="1"/>
-    <col min="3348" max="3348" width="22.42578125" customWidth="1"/>
-    <col min="3349" max="3351" width="15.7109375" customWidth="1"/>
-    <col min="3585" max="3597" width="15.7109375" customWidth="1"/>
-    <col min="3598" max="3598" width="17.5703125" customWidth="1"/>
-    <col min="3599" max="3599" width="16.85546875" customWidth="1"/>
-    <col min="3600" max="3600" width="17.5703125" customWidth="1"/>
-    <col min="3601" max="3601" width="15.7109375" customWidth="1"/>
+    <col min="3347" max="3347" width="15.6640625" customWidth="1"/>
+    <col min="3348" max="3348" width="22.44140625" customWidth="1"/>
+    <col min="3349" max="3351" width="15.6640625" customWidth="1"/>
+    <col min="3585" max="3597" width="15.6640625" customWidth="1"/>
+    <col min="3598" max="3598" width="17.5546875" customWidth="1"/>
+    <col min="3599" max="3599" width="16.88671875" customWidth="1"/>
+    <col min="3600" max="3600" width="17.5546875" customWidth="1"/>
+    <col min="3601" max="3601" width="15.6640625" customWidth="1"/>
     <col min="3602" max="3602" width="23" customWidth="1"/>
-    <col min="3603" max="3603" width="15.7109375" customWidth="1"/>
-    <col min="3604" max="3604" width="22.42578125" customWidth="1"/>
-    <col min="3605" max="3607" width="15.7109375" customWidth="1"/>
-    <col min="3841" max="3853" width="15.7109375" customWidth="1"/>
-    <col min="3854" max="3854" width="17.5703125" customWidth="1"/>
-    <col min="3855" max="3855" width="16.85546875" customWidth="1"/>
-    <col min="3856" max="3856" width="17.5703125" customWidth="1"/>
-    <col min="3857" max="3857" width="15.7109375" customWidth="1"/>
+    <col min="3603" max="3603" width="15.6640625" customWidth="1"/>
+    <col min="3604" max="3604" width="22.44140625" customWidth="1"/>
+    <col min="3605" max="3607" width="15.6640625" customWidth="1"/>
+    <col min="3841" max="3853" width="15.6640625" customWidth="1"/>
+    <col min="3854" max="3854" width="17.5546875" customWidth="1"/>
+    <col min="3855" max="3855" width="16.88671875" customWidth="1"/>
+    <col min="3856" max="3856" width="17.5546875" customWidth="1"/>
+    <col min="3857" max="3857" width="15.6640625" customWidth="1"/>
     <col min="3858" max="3858" width="23" customWidth="1"/>
-    <col min="3859" max="3859" width="15.7109375" customWidth="1"/>
-    <col min="3860" max="3860" width="22.42578125" customWidth="1"/>
-    <col min="3861" max="3863" width="15.7109375" customWidth="1"/>
-    <col min="4097" max="4109" width="15.7109375" customWidth="1"/>
-    <col min="4110" max="4110" width="17.5703125" customWidth="1"/>
-    <col min="4111" max="4111" width="16.85546875" customWidth="1"/>
-    <col min="4112" max="4112" width="17.5703125" customWidth="1"/>
-    <col min="4113" max="4113" width="15.7109375" customWidth="1"/>
+    <col min="3859" max="3859" width="15.6640625" customWidth="1"/>
+    <col min="3860" max="3860" width="22.44140625" customWidth="1"/>
+    <col min="3861" max="3863" width="15.6640625" customWidth="1"/>
+    <col min="4097" max="4109" width="15.6640625" customWidth="1"/>
+    <col min="4110" max="4110" width="17.5546875" customWidth="1"/>
+    <col min="4111" max="4111" width="16.88671875" customWidth="1"/>
+    <col min="4112" max="4112" width="17.5546875" customWidth="1"/>
+    <col min="4113" max="4113" width="15.6640625" customWidth="1"/>
     <col min="4114" max="4114" width="23" customWidth="1"/>
-    <col min="4115" max="4115" width="15.7109375" customWidth="1"/>
-    <col min="4116" max="4116" width="22.42578125" customWidth="1"/>
-    <col min="4117" max="4119" width="15.7109375" customWidth="1"/>
-    <col min="4353" max="4365" width="15.7109375" customWidth="1"/>
-    <col min="4366" max="4366" width="17.5703125" customWidth="1"/>
-    <col min="4367" max="4367" width="16.85546875" customWidth="1"/>
-    <col min="4368" max="4368" width="17.5703125" customWidth="1"/>
-    <col min="4369" max="4369" width="15.7109375" customWidth="1"/>
+    <col min="4115" max="4115" width="15.6640625" customWidth="1"/>
+    <col min="4116" max="4116" width="22.44140625" customWidth="1"/>
+    <col min="4117" max="4119" width="15.6640625" customWidth="1"/>
+    <col min="4353" max="4365" width="15.6640625" customWidth="1"/>
+    <col min="4366" max="4366" width="17.5546875" customWidth="1"/>
+    <col min="4367" max="4367" width="16.88671875" customWidth="1"/>
+    <col min="4368" max="4368" width="17.5546875" customWidth="1"/>
+    <col min="4369" max="4369" width="15.6640625" customWidth="1"/>
     <col min="4370" max="4370" width="23" customWidth="1"/>
-    <col min="4371" max="4371" width="15.7109375" customWidth="1"/>
-    <col min="4372" max="4372" width="22.42578125" customWidth="1"/>
-    <col min="4373" max="4375" width="15.7109375" customWidth="1"/>
-    <col min="4609" max="4621" width="15.7109375" customWidth="1"/>
-    <col min="4622" max="4622" width="17.5703125" customWidth="1"/>
-    <col min="4623" max="4623" width="16.85546875" customWidth="1"/>
-    <col min="4624" max="4624" width="17.5703125" customWidth="1"/>
-    <col min="4625" max="4625" width="15.7109375" customWidth="1"/>
+    <col min="4371" max="4371" width="15.6640625" customWidth="1"/>
+    <col min="4372" max="4372" width="22.44140625" customWidth="1"/>
+    <col min="4373" max="4375" width="15.6640625" customWidth="1"/>
+    <col min="4609" max="4621" width="15.6640625" customWidth="1"/>
+    <col min="4622" max="4622" width="17.5546875" customWidth="1"/>
+    <col min="4623" max="4623" width="16.88671875" customWidth="1"/>
+    <col min="4624" max="4624" width="17.5546875" customWidth="1"/>
+    <col min="4625" max="4625" width="15.6640625" customWidth="1"/>
     <col min="4626" max="4626" width="23" customWidth="1"/>
-    <col min="4627" max="4627" width="15.7109375" customWidth="1"/>
-    <col min="4628" max="4628" width="22.42578125" customWidth="1"/>
-    <col min="4629" max="4631" width="15.7109375" customWidth="1"/>
-    <col min="4865" max="4877" width="15.7109375" customWidth="1"/>
-    <col min="4878" max="4878" width="17.5703125" customWidth="1"/>
-    <col min="4879" max="4879" width="16.85546875" customWidth="1"/>
-    <col min="4880" max="4880" width="17.5703125" customWidth="1"/>
-    <col min="4881" max="4881" width="15.7109375" customWidth="1"/>
+    <col min="4627" max="4627" width="15.6640625" customWidth="1"/>
+    <col min="4628" max="4628" width="22.44140625" customWidth="1"/>
+    <col min="4629" max="4631" width="15.6640625" customWidth="1"/>
+    <col min="4865" max="4877" width="15.6640625" customWidth="1"/>
+    <col min="4878" max="4878" width="17.5546875" customWidth="1"/>
+    <col min="4879" max="4879" width="16.88671875" customWidth="1"/>
+    <col min="4880" max="4880" width="17.5546875" customWidth="1"/>
+    <col min="4881" max="4881" width="15.6640625" customWidth="1"/>
     <col min="4882" max="4882" width="23" customWidth="1"/>
-    <col min="4883" max="4883" width="15.7109375" customWidth="1"/>
-    <col min="4884" max="4884" width="22.42578125" customWidth="1"/>
-    <col min="4885" max="4887" width="15.7109375" customWidth="1"/>
-    <col min="5121" max="5133" width="15.7109375" customWidth="1"/>
-    <col min="5134" max="5134" width="17.5703125" customWidth="1"/>
-    <col min="5135" max="5135" width="16.85546875" customWidth="1"/>
-    <col min="5136" max="5136" width="17.5703125" customWidth="1"/>
-    <col min="5137" max="5137" width="15.7109375" customWidth="1"/>
+    <col min="4883" max="4883" width="15.6640625" customWidth="1"/>
+    <col min="4884" max="4884" width="22.44140625" customWidth="1"/>
+    <col min="4885" max="4887" width="15.6640625" customWidth="1"/>
+    <col min="5121" max="5133" width="15.6640625" customWidth="1"/>
+    <col min="5134" max="5134" width="17.5546875" customWidth="1"/>
+    <col min="5135" max="5135" width="16.88671875" customWidth="1"/>
+    <col min="5136" max="5136" width="17.5546875" customWidth="1"/>
+    <col min="5137" max="5137" width="15.6640625" customWidth="1"/>
     <col min="5138" max="5138" width="23" customWidth="1"/>
-    <col min="5139" max="5139" width="15.7109375" customWidth="1"/>
-    <col min="5140" max="5140" width="22.42578125" customWidth="1"/>
-    <col min="5141" max="5143" width="15.7109375" customWidth="1"/>
-    <col min="5377" max="5389" width="15.7109375" customWidth="1"/>
-    <col min="5390" max="5390" width="17.5703125" customWidth="1"/>
-    <col min="5391" max="5391" width="16.85546875" customWidth="1"/>
-    <col min="5392" max="5392" width="17.5703125" customWidth="1"/>
-    <col min="5393" max="5393" width="15.7109375" customWidth="1"/>
+    <col min="5139" max="5139" width="15.6640625" customWidth="1"/>
+    <col min="5140" max="5140" width="22.44140625" customWidth="1"/>
+    <col min="5141" max="5143" width="15.6640625" customWidth="1"/>
+    <col min="5377" max="5389" width="15.6640625" customWidth="1"/>
+    <col min="5390" max="5390" width="17.5546875" customWidth="1"/>
+    <col min="5391" max="5391" width="16.88671875" customWidth="1"/>
+    <col min="5392" max="5392" width="17.5546875" customWidth="1"/>
+    <col min="5393" max="5393" width="15.6640625" customWidth="1"/>
     <col min="5394" max="5394" width="23" customWidth="1"/>
-    <col min="5395" max="5395" width="15.7109375" customWidth="1"/>
-    <col min="5396" max="5396" width="22.42578125" customWidth="1"/>
-    <col min="5397" max="5399" width="15.7109375" customWidth="1"/>
-    <col min="5633" max="5645" width="15.7109375" customWidth="1"/>
-    <col min="5646" max="5646" width="17.5703125" customWidth="1"/>
-    <col min="5647" max="5647" width="16.85546875" customWidth="1"/>
-    <col min="5648" max="5648" width="17.5703125" customWidth="1"/>
-    <col min="5649" max="5649" width="15.7109375" customWidth="1"/>
+    <col min="5395" max="5395" width="15.6640625" customWidth="1"/>
+    <col min="5396" max="5396" width="22.44140625" customWidth="1"/>
+    <col min="5397" max="5399" width="15.6640625" customWidth="1"/>
+    <col min="5633" max="5645" width="15.6640625" customWidth="1"/>
+    <col min="5646" max="5646" width="17.5546875" customWidth="1"/>
+    <col min="5647" max="5647" width="16.88671875" customWidth="1"/>
+    <col min="5648" max="5648" width="17.5546875" customWidth="1"/>
+    <col min="5649" max="5649" width="15.6640625" customWidth="1"/>
     <col min="5650" max="5650" width="23" customWidth="1"/>
-    <col min="5651" max="5651" width="15.7109375" customWidth="1"/>
-    <col min="5652" max="5652" width="22.42578125" customWidth="1"/>
-    <col min="5653" max="5655" width="15.7109375" customWidth="1"/>
-    <col min="5889" max="5901" width="15.7109375" customWidth="1"/>
-    <col min="5902" max="5902" width="17.5703125" customWidth="1"/>
-    <col min="5903" max="5903" width="16.85546875" customWidth="1"/>
-    <col min="5904" max="5904" width="17.5703125" customWidth="1"/>
-    <col min="5905" max="5905" width="15.7109375" customWidth="1"/>
+    <col min="5651" max="5651" width="15.6640625" customWidth="1"/>
+    <col min="5652" max="5652" width="22.44140625" customWidth="1"/>
+    <col min="5653" max="5655" width="15.6640625" customWidth="1"/>
+    <col min="5889" max="5901" width="15.6640625" customWidth="1"/>
+    <col min="5902" max="5902" width="17.5546875" customWidth="1"/>
+    <col min="5903" max="5903" width="16.88671875" customWidth="1"/>
+    <col min="5904" max="5904" width="17.5546875" customWidth="1"/>
+    <col min="5905" max="5905" width="15.6640625" customWidth="1"/>
     <col min="5906" max="5906" width="23" customWidth="1"/>
-    <col min="5907" max="5907" width="15.7109375" customWidth="1"/>
-    <col min="5908" max="5908" width="22.42578125" customWidth="1"/>
-    <col min="5909" max="5911" width="15.7109375" customWidth="1"/>
-    <col min="6145" max="6157" width="15.7109375" customWidth="1"/>
-    <col min="6158" max="6158" width="17.5703125" customWidth="1"/>
-    <col min="6159" max="6159" width="16.85546875" customWidth="1"/>
-    <col min="6160" max="6160" width="17.5703125" customWidth="1"/>
-    <col min="6161" max="6161" width="15.7109375" customWidth="1"/>
+    <col min="5907" max="5907" width="15.6640625" customWidth="1"/>
+    <col min="5908" max="5908" width="22.44140625" customWidth="1"/>
+    <col min="5909" max="5911" width="15.6640625" customWidth="1"/>
+    <col min="6145" max="6157" width="15.6640625" customWidth="1"/>
+    <col min="6158" max="6158" width="17.5546875" customWidth="1"/>
+    <col min="6159" max="6159" width="16.88671875" customWidth="1"/>
+    <col min="6160" max="6160" width="17.5546875" customWidth="1"/>
+    <col min="6161" max="6161" width="15.6640625" customWidth="1"/>
     <col min="6162" max="6162" width="23" customWidth="1"/>
-    <col min="6163" max="6163" width="15.7109375" customWidth="1"/>
-    <col min="6164" max="6164" width="22.42578125" customWidth="1"/>
-    <col min="6165" max="6167" width="15.7109375" customWidth="1"/>
-    <col min="6401" max="6413" width="15.7109375" customWidth="1"/>
-    <col min="6414" max="6414" width="17.5703125" customWidth="1"/>
-    <col min="6415" max="6415" width="16.85546875" customWidth="1"/>
-    <col min="6416" max="6416" width="17.5703125" customWidth="1"/>
-    <col min="6417" max="6417" width="15.7109375" customWidth="1"/>
+    <col min="6163" max="6163" width="15.6640625" customWidth="1"/>
+    <col min="6164" max="6164" width="22.44140625" customWidth="1"/>
+    <col min="6165" max="6167" width="15.6640625" customWidth="1"/>
+    <col min="6401" max="6413" width="15.6640625" customWidth="1"/>
+    <col min="6414" max="6414" width="17.5546875" customWidth="1"/>
+    <col min="6415" max="6415" width="16.88671875" customWidth="1"/>
+    <col min="6416" max="6416" width="17.5546875" customWidth="1"/>
+    <col min="6417" max="6417" width="15.6640625" customWidth="1"/>
     <col min="6418" max="6418" width="23" customWidth="1"/>
-    <col min="6419" max="6419" width="15.7109375" customWidth="1"/>
-    <col min="6420" max="6420" width="22.42578125" customWidth="1"/>
-    <col min="6421" max="6423" width="15.7109375" customWidth="1"/>
-    <col min="6657" max="6669" width="15.7109375" customWidth="1"/>
-    <col min="6670" max="6670" width="17.5703125" customWidth="1"/>
-    <col min="6671" max="6671" width="16.85546875" customWidth="1"/>
-    <col min="6672" max="6672" width="17.5703125" customWidth="1"/>
-    <col min="6673" max="6673" width="15.7109375" customWidth="1"/>
+    <col min="6419" max="6419" width="15.6640625" customWidth="1"/>
+    <col min="6420" max="6420" width="22.44140625" customWidth="1"/>
+    <col min="6421" max="6423" width="15.6640625" customWidth="1"/>
+    <col min="6657" max="6669" width="15.6640625" customWidth="1"/>
+    <col min="6670" max="6670" width="17.5546875" customWidth="1"/>
+    <col min="6671" max="6671" width="16.88671875" customWidth="1"/>
+    <col min="6672" max="6672" width="17.5546875" customWidth="1"/>
+    <col min="6673" max="6673" width="15.6640625" customWidth="1"/>
     <col min="6674" max="6674" width="23" customWidth="1"/>
-    <col min="6675" max="6675" width="15.7109375" customWidth="1"/>
-    <col min="6676" max="6676" width="22.42578125" customWidth="1"/>
-    <col min="6677" max="6679" width="15.7109375" customWidth="1"/>
-    <col min="6913" max="6925" width="15.7109375" customWidth="1"/>
-    <col min="6926" max="6926" width="17.5703125" customWidth="1"/>
-    <col min="6927" max="6927" width="16.85546875" customWidth="1"/>
-    <col min="6928" max="6928" width="17.5703125" customWidth="1"/>
-    <col min="6929" max="6929" width="15.7109375" customWidth="1"/>
+    <col min="6675" max="6675" width="15.6640625" customWidth="1"/>
+    <col min="6676" max="6676" width="22.44140625" customWidth="1"/>
+    <col min="6677" max="6679" width="15.6640625" customWidth="1"/>
+    <col min="6913" max="6925" width="15.6640625" customWidth="1"/>
+    <col min="6926" max="6926" width="17.5546875" customWidth="1"/>
+    <col min="6927" max="6927" width="16.88671875" customWidth="1"/>
+    <col min="6928" max="6928" width="17.5546875" customWidth="1"/>
+    <col min="6929" max="6929" width="15.6640625" customWidth="1"/>
     <col min="6930" max="6930" width="23" customWidth="1"/>
-    <col min="6931" max="6931" width="15.7109375" customWidth="1"/>
-    <col min="6932" max="6932" width="22.42578125" customWidth="1"/>
-    <col min="6933" max="6935" width="15.7109375" customWidth="1"/>
-    <col min="7169" max="7181" width="15.7109375" customWidth="1"/>
-    <col min="7182" max="7182" width="17.5703125" customWidth="1"/>
-    <col min="7183" max="7183" width="16.85546875" customWidth="1"/>
-    <col min="7184" max="7184" width="17.5703125" customWidth="1"/>
-    <col min="7185" max="7185" width="15.7109375" customWidth="1"/>
+    <col min="6931" max="6931" width="15.6640625" customWidth="1"/>
+    <col min="6932" max="6932" width="22.44140625" customWidth="1"/>
+    <col min="6933" max="6935" width="15.6640625" customWidth="1"/>
+    <col min="7169" max="7181" width="15.6640625" customWidth="1"/>
+    <col min="7182" max="7182" width="17.5546875" customWidth="1"/>
+    <col min="7183" max="7183" width="16.88671875" customWidth="1"/>
+    <col min="7184" max="7184" width="17.5546875" customWidth="1"/>
+    <col min="7185" max="7185" width="15.6640625" customWidth="1"/>
     <col min="7186" max="7186" width="23" customWidth="1"/>
-    <col min="7187" max="7187" width="15.7109375" customWidth="1"/>
-    <col min="7188" max="7188" width="22.42578125" customWidth="1"/>
-    <col min="7189" max="7191" width="15.7109375" customWidth="1"/>
-    <col min="7425" max="7437" width="15.7109375" customWidth="1"/>
-    <col min="7438" max="7438" width="17.5703125" customWidth="1"/>
-    <col min="7439" max="7439" width="16.85546875" customWidth="1"/>
-    <col min="7440" max="7440" width="17.5703125" customWidth="1"/>
-    <col min="7441" max="7441" width="15.7109375" customWidth="1"/>
+    <col min="7187" max="7187" width="15.6640625" customWidth="1"/>
+    <col min="7188" max="7188" width="22.44140625" customWidth="1"/>
+    <col min="7189" max="7191" width="15.6640625" customWidth="1"/>
+    <col min="7425" max="7437" width="15.6640625" customWidth="1"/>
+    <col min="7438" max="7438" width="17.5546875" customWidth="1"/>
+    <col min="7439" max="7439" width="16.88671875" customWidth="1"/>
+    <col min="7440" max="7440" width="17.5546875" customWidth="1"/>
+    <col min="7441" max="7441" width="15.6640625" customWidth="1"/>
     <col min="7442" max="7442" width="23" customWidth="1"/>
-    <col min="7443" max="7443" width="15.7109375" customWidth="1"/>
-    <col min="7444" max="7444" width="22.42578125" customWidth="1"/>
-    <col min="7445" max="7447" width="15.7109375" customWidth="1"/>
-    <col min="7681" max="7693" width="15.7109375" customWidth="1"/>
-    <col min="7694" max="7694" width="17.5703125" customWidth="1"/>
-    <col min="7695" max="7695" width="16.85546875" customWidth="1"/>
-    <col min="7696" max="7696" width="17.5703125" customWidth="1"/>
-    <col min="7697" max="7697" width="15.7109375" customWidth="1"/>
+    <col min="7443" max="7443" width="15.6640625" customWidth="1"/>
+    <col min="7444" max="7444" width="22.44140625" customWidth="1"/>
+    <col min="7445" max="7447" width="15.6640625" customWidth="1"/>
+    <col min="7681" max="7693" width="15.6640625" customWidth="1"/>
+    <col min="7694" max="7694" width="17.5546875" customWidth="1"/>
+    <col min="7695" max="7695" width="16.88671875" customWidth="1"/>
+    <col min="7696" max="7696" width="17.5546875" customWidth="1"/>
+    <col min="7697" max="7697" width="15.6640625" customWidth="1"/>
     <col min="7698" max="7698" width="23" customWidth="1"/>
-    <col min="7699" max="7699" width="15.7109375" customWidth="1"/>
-    <col min="7700" max="7700" width="22.42578125" customWidth="1"/>
-    <col min="7701" max="7703" width="15.7109375" customWidth="1"/>
-    <col min="7937" max="7949" width="15.7109375" customWidth="1"/>
-    <col min="7950" max="7950" width="17.5703125" customWidth="1"/>
-    <col min="7951" max="7951" width="16.85546875" customWidth="1"/>
-    <col min="7952" max="7952" width="17.5703125" customWidth="1"/>
-    <col min="7953" max="7953" width="15.7109375" customWidth="1"/>
+    <col min="7699" max="7699" width="15.6640625" customWidth="1"/>
+    <col min="7700" max="7700" width="22.44140625" customWidth="1"/>
+    <col min="7701" max="7703" width="15.6640625" customWidth="1"/>
+    <col min="7937" max="7949" width="15.6640625" customWidth="1"/>
+    <col min="7950" max="7950" width="17.5546875" customWidth="1"/>
+    <col min="7951" max="7951" width="16.88671875" customWidth="1"/>
+    <col min="7952" max="7952" width="17.5546875" customWidth="1"/>
+    <col min="7953" max="7953" width="15.6640625" customWidth="1"/>
     <col min="7954" max="7954" width="23" customWidth="1"/>
-    <col min="7955" max="7955" width="15.7109375" customWidth="1"/>
-    <col min="7956" max="7956" width="22.42578125" customWidth="1"/>
-    <col min="7957" max="7959" width="15.7109375" customWidth="1"/>
-    <col min="8193" max="8205" width="15.7109375" customWidth="1"/>
-    <col min="8206" max="8206" width="17.5703125" customWidth="1"/>
-    <col min="8207" max="8207" width="16.85546875" customWidth="1"/>
-    <col min="8208" max="8208" width="17.5703125" customWidth="1"/>
-    <col min="8209" max="8209" width="15.7109375" customWidth="1"/>
+    <col min="7955" max="7955" width="15.6640625" customWidth="1"/>
+    <col min="7956" max="7956" width="22.44140625" customWidth="1"/>
+    <col min="7957" max="7959" width="15.6640625" customWidth="1"/>
+    <col min="8193" max="8205" width="15.6640625" customWidth="1"/>
+    <col min="8206" max="8206" width="17.5546875" customWidth="1"/>
+    <col min="8207" max="8207" width="16.88671875" customWidth="1"/>
+    <col min="8208" max="8208" width="17.5546875" customWidth="1"/>
+    <col min="8209" max="8209" width="15.6640625" customWidth="1"/>
     <col min="8210" max="8210" width="23" customWidth="1"/>
-    <col min="8211" max="8211" width="15.7109375" customWidth="1"/>
-    <col min="8212" max="8212" width="22.42578125" customWidth="1"/>
-    <col min="8213" max="8215" width="15.7109375" customWidth="1"/>
-    <col min="8449" max="8461" width="15.7109375" customWidth="1"/>
-    <col min="8462" max="8462" width="17.5703125" customWidth="1"/>
-    <col min="8463" max="8463" width="16.85546875" customWidth="1"/>
-    <col min="8464" max="8464" width="17.5703125" customWidth="1"/>
-    <col min="8465" max="8465" width="15.7109375" customWidth="1"/>
+    <col min="8211" max="8211" width="15.6640625" customWidth="1"/>
+    <col min="8212" max="8212" width="22.44140625" customWidth="1"/>
+    <col min="8213" max="8215" width="15.6640625" customWidth="1"/>
+    <col min="8449" max="8461" width="15.6640625" customWidth="1"/>
+    <col min="8462" max="8462" width="17.5546875" customWidth="1"/>
+    <col min="8463" max="8463" width="16.88671875" customWidth="1"/>
+    <col min="8464" max="8464" width="17.5546875" customWidth="1"/>
+    <col min="8465" max="8465" width="15.6640625" customWidth="1"/>
     <col min="8466" max="8466" width="23" customWidth="1"/>
-    <col min="8467" max="8467" width="15.7109375" customWidth="1"/>
-    <col min="8468" max="8468" width="22.42578125" customWidth="1"/>
-    <col min="8469" max="8471" width="15.7109375" customWidth="1"/>
-    <col min="8705" max="8717" width="15.7109375" customWidth="1"/>
-    <col min="8718" max="8718" width="17.5703125" customWidth="1"/>
-    <col min="8719" max="8719" width="16.85546875" customWidth="1"/>
-    <col min="8720" max="8720" width="17.5703125" customWidth="1"/>
-    <col min="8721" max="8721" width="15.7109375" customWidth="1"/>
+    <col min="8467" max="8467" width="15.6640625" customWidth="1"/>
+    <col min="8468" max="8468" width="22.44140625" customWidth="1"/>
+    <col min="8469" max="8471" width="15.6640625" customWidth="1"/>
+    <col min="8705" max="8717" width="15.6640625" customWidth="1"/>
+    <col min="8718" max="8718" width="17.5546875" customWidth="1"/>
+    <col min="8719" max="8719" width="16.88671875" customWidth="1"/>
+    <col min="8720" max="8720" width="17.5546875" customWidth="1"/>
+    <col min="8721" max="8721" width="15.6640625" customWidth="1"/>
     <col min="8722" max="8722" width="23" customWidth="1"/>
-    <col min="8723" max="8723" width="15.7109375" customWidth="1"/>
-    <col min="8724" max="8724" width="22.42578125" customWidth="1"/>
-    <col min="8725" max="8727" width="15.7109375" customWidth="1"/>
-    <col min="8961" max="8973" width="15.7109375" customWidth="1"/>
-    <col min="8974" max="8974" width="17.5703125" customWidth="1"/>
-    <col min="8975" max="8975" width="16.85546875" customWidth="1"/>
-    <col min="8976" max="8976" width="17.5703125" customWidth="1"/>
-    <col min="8977" max="8977" width="15.7109375" customWidth="1"/>
+    <col min="8723" max="8723" width="15.6640625" customWidth="1"/>
+    <col min="8724" max="8724" width="22.44140625" customWidth="1"/>
+    <col min="8725" max="8727" width="15.6640625" customWidth="1"/>
+    <col min="8961" max="8973" width="15.6640625" customWidth="1"/>
+    <col min="8974" max="8974" width="17.5546875" customWidth="1"/>
+    <col min="8975" max="8975" width="16.88671875" customWidth="1"/>
+    <col min="8976" max="8976" width="17.5546875" customWidth="1"/>
+    <col min="8977" max="8977" width="15.6640625" customWidth="1"/>
     <col min="8978" max="8978" width="23" customWidth="1"/>
-    <col min="8979" max="8979" width="15.7109375" customWidth="1"/>
-    <col min="8980" max="8980" width="22.42578125" customWidth="1"/>
-    <col min="8981" max="8983" width="15.7109375" customWidth="1"/>
-    <col min="9217" max="9229" width="15.7109375" customWidth="1"/>
-    <col min="9230" max="9230" width="17.5703125" customWidth="1"/>
-    <col min="9231" max="9231" width="16.85546875" customWidth="1"/>
-    <col min="9232" max="9232" width="17.5703125" customWidth="1"/>
-    <col min="9233" max="9233" width="15.7109375" customWidth="1"/>
+    <col min="8979" max="8979" width="15.6640625" customWidth="1"/>
+    <col min="8980" max="8980" width="22.44140625" customWidth="1"/>
+    <col min="8981" max="8983" width="15.6640625" customWidth="1"/>
+    <col min="9217" max="9229" width="15.6640625" customWidth="1"/>
+    <col min="9230" max="9230" width="17.5546875" customWidth="1"/>
+    <col min="9231" max="9231" width="16.88671875" customWidth="1"/>
+    <col min="9232" max="9232" width="17.5546875" customWidth="1"/>
+    <col min="9233" max="9233" width="15.6640625" customWidth="1"/>
     <col min="9234" max="9234" width="23" customWidth="1"/>
-    <col min="9235" max="9235" width="15.7109375" customWidth="1"/>
-    <col min="9236" max="9236" width="22.42578125" customWidth="1"/>
-    <col min="9237" max="9239" width="15.7109375" customWidth="1"/>
-    <col min="9473" max="9485" width="15.7109375" customWidth="1"/>
-    <col min="9486" max="9486" width="17.5703125" customWidth="1"/>
-    <col min="9487" max="9487" width="16.85546875" customWidth="1"/>
-    <col min="9488" max="9488" width="17.5703125" customWidth="1"/>
-    <col min="9489" max="9489" width="15.7109375" customWidth="1"/>
+    <col min="9235" max="9235" width="15.6640625" customWidth="1"/>
+    <col min="9236" max="9236" width="22.44140625" customWidth="1"/>
+    <col min="9237" max="9239" width="15.6640625" customWidth="1"/>
+    <col min="9473" max="9485" width="15.6640625" customWidth="1"/>
+    <col min="9486" max="9486" width="17.5546875" customWidth="1"/>
+    <col min="9487" max="9487" width="16.88671875" customWidth="1"/>
+    <col min="9488" max="9488" width="17.5546875" customWidth="1"/>
+    <col min="9489" max="9489" width="15.6640625" customWidth="1"/>
     <col min="9490" max="9490" width="23" customWidth="1"/>
-    <col min="9491" max="9491" width="15.7109375" customWidth="1"/>
-    <col min="9492" max="9492" width="22.42578125" customWidth="1"/>
-    <col min="9493" max="9495" width="15.7109375" customWidth="1"/>
-    <col min="9729" max="9741" width="15.7109375" customWidth="1"/>
-    <col min="9742" max="9742" width="17.5703125" customWidth="1"/>
-    <col min="9743" max="9743" width="16.85546875" customWidth="1"/>
-    <col min="9744" max="9744" width="17.5703125" customWidth="1"/>
-    <col min="9745" max="9745" width="15.7109375" customWidth="1"/>
+    <col min="9491" max="9491" width="15.6640625" customWidth="1"/>
+    <col min="9492" max="9492" width="22.44140625" customWidth="1"/>
+    <col min="9493" max="9495" width="15.6640625" customWidth="1"/>
+    <col min="9729" max="9741" width="15.6640625" customWidth="1"/>
+    <col min="9742" max="9742" width="17.5546875" customWidth="1"/>
+    <col min="9743" max="9743" width="16.88671875" customWidth="1"/>
+    <col min="9744" max="9744" width="17.5546875" customWidth="1"/>
+    <col min="9745" max="9745" width="15.6640625" customWidth="1"/>
     <col min="9746" max="9746" width="23" customWidth="1"/>
-    <col min="9747" max="9747" width="15.7109375" customWidth="1"/>
-    <col min="9748" max="9748" width="22.42578125" customWidth="1"/>
-    <col min="9749" max="9751" width="15.7109375" customWidth="1"/>
-    <col min="9985" max="9997" width="15.7109375" customWidth="1"/>
-    <col min="9998" max="9998" width="17.5703125" customWidth="1"/>
-    <col min="9999" max="9999" width="16.85546875" customWidth="1"/>
-    <col min="10000" max="10000" width="17.5703125" customWidth="1"/>
-    <col min="10001" max="10001" width="15.7109375" customWidth="1"/>
+    <col min="9747" max="9747" width="15.6640625" customWidth="1"/>
+    <col min="9748" max="9748" width="22.44140625" customWidth="1"/>
+    <col min="9749" max="9751" width="15.6640625" customWidth="1"/>
+    <col min="9985" max="9997" width="15.6640625" customWidth="1"/>
+    <col min="9998" max="9998" width="17.5546875" customWidth="1"/>
+    <col min="9999" max="9999" width="16.88671875" customWidth="1"/>
+    <col min="10000" max="10000" width="17.5546875" customWidth="1"/>
+    <col min="10001" max="10001" width="15.6640625" customWidth="1"/>
     <col min="10002" max="10002" width="23" customWidth="1"/>
-    <col min="10003" max="10003" width="15.7109375" customWidth="1"/>
-    <col min="10004" max="10004" width="22.42578125" customWidth="1"/>
-    <col min="10005" max="10007" width="15.7109375" customWidth="1"/>
-    <col min="10241" max="10253" width="15.7109375" customWidth="1"/>
-    <col min="10254" max="10254" width="17.5703125" customWidth="1"/>
-    <col min="10255" max="10255" width="16.85546875" customWidth="1"/>
-    <col min="10256" max="10256" width="17.5703125" customWidth="1"/>
-    <col min="10257" max="10257" width="15.7109375" customWidth="1"/>
+    <col min="10003" max="10003" width="15.6640625" customWidth="1"/>
+    <col min="10004" max="10004" width="22.44140625" customWidth="1"/>
+    <col min="10005" max="10007" width="15.6640625" customWidth="1"/>
+    <col min="10241" max="10253" width="15.6640625" customWidth="1"/>
+    <col min="10254" max="10254" width="17.5546875" customWidth="1"/>
+    <col min="10255" max="10255" width="16.88671875" customWidth="1"/>
+    <col min="10256" max="10256" width="17.5546875" customWidth="1"/>
+    <col min="10257" max="10257" width="15.6640625" customWidth="1"/>
     <col min="10258" max="10258" width="23" customWidth="1"/>
-    <col min="10259" max="10259" width="15.7109375" customWidth="1"/>
-    <col min="10260" max="10260" width="22.42578125" customWidth="1"/>
-    <col min="10261" max="10263" width="15.7109375" customWidth="1"/>
-    <col min="10497" max="10509" width="15.7109375" customWidth="1"/>
-    <col min="10510" max="10510" width="17.5703125" customWidth="1"/>
-    <col min="10511" max="10511" width="16.85546875" customWidth="1"/>
-    <col min="10512" max="10512" width="17.5703125" customWidth="1"/>
-    <col min="10513" max="10513" width="15.7109375" customWidth="1"/>
+    <col min="10259" max="10259" width="15.6640625" customWidth="1"/>
+    <col min="10260" max="10260" width="22.44140625" customWidth="1"/>
+    <col min="10261" max="10263" width="15.6640625" customWidth="1"/>
+    <col min="10497" max="10509" width="15.6640625" customWidth="1"/>
+    <col min="10510" max="10510" width="17.5546875" customWidth="1"/>
+    <col min="10511" max="10511" width="16.88671875" customWidth="1"/>
+    <col min="10512" max="10512" width="17.5546875" customWidth="1"/>
+    <col min="10513" max="10513" width="15.6640625" customWidth="1"/>
     <col min="10514" max="10514" width="23" customWidth="1"/>
-    <col min="10515" max="10515" width="15.7109375" customWidth="1"/>
-    <col min="10516" max="10516" width="22.42578125" customWidth="1"/>
-    <col min="10517" max="10519" width="15.7109375" customWidth="1"/>
-    <col min="10753" max="10765" width="15.7109375" customWidth="1"/>
-    <col min="10766" max="10766" width="17.5703125" customWidth="1"/>
-    <col min="10767" max="10767" width="16.85546875" customWidth="1"/>
-    <col min="10768" max="10768" width="17.5703125" customWidth="1"/>
-    <col min="10769" max="10769" width="15.7109375" customWidth="1"/>
+    <col min="10515" max="10515" width="15.6640625" customWidth="1"/>
+    <col min="10516" max="10516" width="22.44140625" customWidth="1"/>
+    <col min="10517" max="10519" width="15.6640625" customWidth="1"/>
+    <col min="10753" max="10765" width="15.6640625" customWidth="1"/>
+    <col min="10766" max="10766" width="17.5546875" customWidth="1"/>
+    <col min="10767" max="10767" width="16.88671875" customWidth="1"/>
+    <col min="10768" max="10768" width="17.5546875" customWidth="1"/>
+    <col min="10769" max="10769" width="15.6640625" customWidth="1"/>
     <col min="10770" max="10770" width="23" customWidth="1"/>
-    <col min="10771" max="10771" width="15.7109375" customWidth="1"/>
-    <col min="10772" max="10772" width="22.42578125" customWidth="1"/>
-    <col min="10773" max="10775" width="15.7109375" customWidth="1"/>
-    <col min="11009" max="11021" width="15.7109375" customWidth="1"/>
-    <col min="11022" max="11022" width="17.5703125" customWidth="1"/>
-    <col min="11023" max="11023" width="16.85546875" customWidth="1"/>
-    <col min="11024" max="11024" width="17.5703125" customWidth="1"/>
-    <col min="11025" max="11025" width="15.7109375" customWidth="1"/>
+    <col min="10771" max="10771" width="15.6640625" customWidth="1"/>
+    <col min="10772" max="10772" width="22.44140625" customWidth="1"/>
+    <col min="10773" max="10775" width="15.6640625" customWidth="1"/>
+    <col min="11009" max="11021" width="15.6640625" customWidth="1"/>
+    <col min="11022" max="11022" width="17.5546875" customWidth="1"/>
+    <col min="11023" max="11023" width="16.88671875" customWidth="1"/>
+    <col min="11024" max="11024" width="17.5546875" customWidth="1"/>
+    <col min="11025" max="11025" width="15.6640625" customWidth="1"/>
     <col min="11026" max="11026" width="23" customWidth="1"/>
-    <col min="11027" max="11027" width="15.7109375" customWidth="1"/>
-    <col min="11028" max="11028" width="22.42578125" customWidth="1"/>
-    <col min="11029" max="11031" width="15.7109375" customWidth="1"/>
-    <col min="11265" max="11277" width="15.7109375" customWidth="1"/>
-    <col min="11278" max="11278" width="17.5703125" customWidth="1"/>
-    <col min="11279" max="11279" width="16.85546875" customWidth="1"/>
-    <col min="11280" max="11280" width="17.5703125" customWidth="1"/>
-    <col min="11281" max="11281" width="15.7109375" customWidth="1"/>
+    <col min="11027" max="11027" width="15.6640625" customWidth="1"/>
+    <col min="11028" max="11028" width="22.44140625" customWidth="1"/>
+    <col min="11029" max="11031" width="15.6640625" customWidth="1"/>
+    <col min="11265" max="11277" width="15.6640625" customWidth="1"/>
+    <col min="11278" max="11278" width="17.5546875" customWidth="1"/>
+    <col min="11279" max="11279" width="16.88671875" customWidth="1"/>
+    <col min="11280" max="11280" width="17.5546875" customWidth="1"/>
+    <col min="11281" max="11281" width="15.6640625" customWidth="1"/>
     <col min="11282" max="11282" width="23" customWidth="1"/>
-    <col min="11283" max="11283" width="15.7109375" customWidth="1"/>
-    <col min="11284" max="11284" width="22.42578125" customWidth="1"/>
-    <col min="11285" max="11287" width="15.7109375" customWidth="1"/>
-    <col min="11521" max="11533" width="15.7109375" customWidth="1"/>
-    <col min="11534" max="11534" width="17.5703125" customWidth="1"/>
-    <col min="11535" max="11535" width="16.85546875" customWidth="1"/>
-    <col min="11536" max="11536" width="17.5703125" customWidth="1"/>
-    <col min="11537" max="11537" width="15.7109375" customWidth="1"/>
+    <col min="11283" max="11283" width="15.6640625" customWidth="1"/>
+    <col min="11284" max="11284" width="22.44140625" customWidth="1"/>
+    <col min="11285" max="11287" width="15.6640625" customWidth="1"/>
+    <col min="11521" max="11533" width="15.6640625" customWidth="1"/>
+    <col min="11534" max="11534" width="17.5546875" customWidth="1"/>
+    <col min="11535" max="11535" width="16.88671875" customWidth="1"/>
+    <col min="11536" max="11536" width="17.5546875" customWidth="1"/>
+    <col min="11537" max="11537" width="15.6640625" customWidth="1"/>
     <col min="11538" max="11538" width="23" customWidth="1"/>
-    <col min="11539" max="11539" width="15.7109375" customWidth="1"/>
-    <col min="11540" max="11540" width="22.42578125" customWidth="1"/>
-    <col min="11541" max="11543" width="15.7109375" customWidth="1"/>
-    <col min="11777" max="11789" width="15.7109375" customWidth="1"/>
-    <col min="11790" max="11790" width="17.5703125" customWidth="1"/>
-    <col min="11791" max="11791" width="16.85546875" customWidth="1"/>
-    <col min="11792" max="11792" width="17.5703125" customWidth="1"/>
-    <col min="11793" max="11793" width="15.7109375" customWidth="1"/>
+    <col min="11539" max="11539" width="15.6640625" customWidth="1"/>
+    <col min="11540" max="11540" width="22.44140625" customWidth="1"/>
+    <col min="11541" max="11543" width="15.6640625" customWidth="1"/>
+    <col min="11777" max="11789" width="15.6640625" customWidth="1"/>
+    <col min="11790" max="11790" width="17.5546875" customWidth="1"/>
+    <col min="11791" max="11791" width="16.88671875" customWidth="1"/>
+    <col min="11792" max="11792" width="17.5546875" customWidth="1"/>
+    <col min="11793" max="11793" width="15.6640625" customWidth="1"/>
     <col min="11794" max="11794" width="23" customWidth="1"/>
-    <col min="11795" max="11795" width="15.7109375" customWidth="1"/>
-    <col min="11796" max="11796" width="22.42578125" customWidth="1"/>
-    <col min="11797" max="11799" width="15.7109375" customWidth="1"/>
-    <col min="12033" max="12045" width="15.7109375" customWidth="1"/>
-    <col min="12046" max="12046" width="17.5703125" customWidth="1"/>
-    <col min="12047" max="12047" width="16.85546875" customWidth="1"/>
-    <col min="12048" max="12048" width="17.5703125" customWidth="1"/>
-    <col min="12049" max="12049" width="15.7109375" customWidth="1"/>
+    <col min="11795" max="11795" width="15.6640625" customWidth="1"/>
+    <col min="11796" max="11796" width="22.44140625" customWidth="1"/>
+    <col min="11797" max="11799" width="15.6640625" customWidth="1"/>
+    <col min="12033" max="12045" width="15.6640625" customWidth="1"/>
+    <col min="12046" max="12046" width="17.5546875" customWidth="1"/>
+    <col min="12047" max="12047" width="16.88671875" customWidth="1"/>
+    <col min="12048" max="12048" width="17.5546875" customWidth="1"/>
+    <col min="12049" max="12049" width="15.6640625" customWidth="1"/>
     <col min="12050" max="12050" width="23" customWidth="1"/>
-    <col min="12051" max="12051" width="15.7109375" customWidth="1"/>
-    <col min="12052" max="12052" width="22.42578125" customWidth="1"/>
-    <col min="12053" max="12055" width="15.7109375" customWidth="1"/>
-    <col min="12289" max="12301" width="15.7109375" customWidth="1"/>
-    <col min="12302" max="12302" width="17.5703125" customWidth="1"/>
-    <col min="12303" max="12303" width="16.85546875" customWidth="1"/>
-    <col min="12304" max="12304" width="17.5703125" customWidth="1"/>
-    <col min="12305" max="12305" width="15.7109375" customWidth="1"/>
+    <col min="12051" max="12051" width="15.6640625" customWidth="1"/>
+    <col min="12052" max="12052" width="22.44140625" customWidth="1"/>
+    <col min="12053" max="12055" width="15.6640625" customWidth="1"/>
+    <col min="12289" max="12301" width="15.6640625" customWidth="1"/>
+    <col min="12302" max="12302" width="17.5546875" customWidth="1"/>
+    <col min="12303" max="12303" width="16.88671875" customWidth="1"/>
+    <col min="12304" max="12304" width="17.5546875" customWidth="1"/>
+    <col min="12305" max="12305" width="15.6640625" customWidth="1"/>
     <col min="12306" max="12306" width="23" customWidth="1"/>
-    <col min="12307" max="12307" width="15.7109375" customWidth="1"/>
-    <col min="12308" max="12308" width="22.42578125" customWidth="1"/>
-    <col min="12309" max="12311" width="15.7109375" customWidth="1"/>
-    <col min="12545" max="12557" width="15.7109375" customWidth="1"/>
-    <col min="12558" max="12558" width="17.5703125" customWidth="1"/>
-    <col min="12559" max="12559" width="16.85546875" customWidth="1"/>
-    <col min="12560" max="12560" width="17.5703125" customWidth="1"/>
-    <col min="12561" max="12561" width="15.7109375" customWidth="1"/>
+    <col min="12307" max="12307" width="15.6640625" customWidth="1"/>
+    <col min="12308" max="12308" width="22.44140625" customWidth="1"/>
+    <col min="12309" max="12311" width="15.6640625" customWidth="1"/>
+    <col min="12545" max="12557" width="15.6640625" customWidth="1"/>
+    <col min="12558" max="12558" width="17.5546875" customWidth="1"/>
+    <col min="12559" max="12559" width="16.88671875" customWidth="1"/>
+    <col min="12560" max="12560" width="17.5546875" customWidth="1"/>
+    <col min="12561" max="12561" width="15.6640625" customWidth="1"/>
     <col min="12562" max="12562" width="23" customWidth="1"/>
-    <col min="12563" max="12563" width="15.7109375" customWidth="1"/>
-    <col min="12564" max="12564" width="22.42578125" customWidth="1"/>
-    <col min="12565" max="12567" width="15.7109375" customWidth="1"/>
-    <col min="12801" max="12813" width="15.7109375" customWidth="1"/>
-    <col min="12814" max="12814" width="17.5703125" customWidth="1"/>
-    <col min="12815" max="12815" width="16.85546875" customWidth="1"/>
-    <col min="12816" max="12816" width="17.5703125" customWidth="1"/>
-    <col min="12817" max="12817" width="15.7109375" customWidth="1"/>
+    <col min="12563" max="12563" width="15.6640625" customWidth="1"/>
+    <col min="12564" max="12564" width="22.44140625" customWidth="1"/>
+    <col min="12565" max="12567" width="15.6640625" customWidth="1"/>
+    <col min="12801" max="12813" width="15.6640625" customWidth="1"/>
+    <col min="12814" max="12814" width="17.5546875" customWidth="1"/>
+    <col min="12815" max="12815" width="16.88671875" customWidth="1"/>
+    <col min="12816" max="12816" width="17.5546875" customWidth="1"/>
+    <col min="12817" max="12817" width="15.6640625" customWidth="1"/>
     <col min="12818" max="12818" width="23" customWidth="1"/>
-    <col min="12819" max="12819" width="15.7109375" customWidth="1"/>
-    <col min="12820" max="12820" width="22.42578125" customWidth="1"/>
-    <col min="12821" max="12823" width="15.7109375" customWidth="1"/>
-    <col min="13057" max="13069" width="15.7109375" customWidth="1"/>
-    <col min="13070" max="13070" width="17.5703125" customWidth="1"/>
-    <col min="13071" max="13071" width="16.85546875" customWidth="1"/>
-    <col min="13072" max="13072" width="17.5703125" customWidth="1"/>
-    <col min="13073" max="13073" width="15.7109375" customWidth="1"/>
+    <col min="12819" max="12819" width="15.6640625" customWidth="1"/>
+    <col min="12820" max="12820" width="22.44140625" customWidth="1"/>
+    <col min="12821" max="12823" width="15.6640625" customWidth="1"/>
+    <col min="13057" max="13069" width="15.6640625" customWidth="1"/>
+    <col min="13070" max="13070" width="17.5546875" customWidth="1"/>
+    <col min="13071" max="13071" width="16.88671875" customWidth="1"/>
+    <col min="13072" max="13072" width="17.5546875" customWidth="1"/>
+    <col min="13073" max="13073" width="15.6640625" customWidth="1"/>
     <col min="13074" max="13074" width="23" customWidth="1"/>
-    <col min="13075" max="13075" width="15.7109375" customWidth="1"/>
-    <col min="13076" max="13076" width="22.42578125" customWidth="1"/>
-    <col min="13077" max="13079" width="15.7109375" customWidth="1"/>
-    <col min="13313" max="13325" width="15.7109375" customWidth="1"/>
-    <col min="13326" max="13326" width="17.5703125" customWidth="1"/>
-    <col min="13327" max="13327" width="16.85546875" customWidth="1"/>
-    <col min="13328" max="13328" width="17.5703125" customWidth="1"/>
-    <col min="13329" max="13329" width="15.7109375" customWidth="1"/>
+    <col min="13075" max="13075" width="15.6640625" customWidth="1"/>
+    <col min="13076" max="13076" width="22.44140625" customWidth="1"/>
+    <col min="13077" max="13079" width="15.6640625" customWidth="1"/>
+    <col min="13313" max="13325" width="15.6640625" customWidth="1"/>
+    <col min="13326" max="13326" width="17.5546875" customWidth="1"/>
+    <col min="13327" max="13327" width="16.88671875" customWidth="1"/>
+    <col min="13328" max="13328" width="17.5546875" customWidth="1"/>
+    <col min="13329" max="13329" width="15.6640625" customWidth="1"/>
     <col min="13330" max="13330" width="23" customWidth="1"/>
-    <col min="13331" max="13331" width="15.7109375" customWidth="1"/>
-    <col min="13332" max="13332" width="22.42578125" customWidth="1"/>
-    <col min="13333" max="13335" width="15.7109375" customWidth="1"/>
-    <col min="13569" max="13581" width="15.7109375" customWidth="1"/>
-    <col min="13582" max="13582" width="17.5703125" customWidth="1"/>
-    <col min="13583" max="13583" width="16.85546875" customWidth="1"/>
-    <col min="13584" max="13584" width="17.5703125" customWidth="1"/>
-    <col min="13585" max="13585" width="15.7109375" customWidth="1"/>
+    <col min="13331" max="13331" width="15.6640625" customWidth="1"/>
+    <col min="13332" max="13332" width="22.44140625" customWidth="1"/>
+    <col min="13333" max="13335" width="15.6640625" customWidth="1"/>
+    <col min="13569" max="13581" width="15.6640625" customWidth="1"/>
+    <col min="13582" max="13582" width="17.5546875" customWidth="1"/>
+    <col min="13583" max="13583" width="16.88671875" customWidth="1"/>
+    <col min="13584" max="13584" width="17.5546875" customWidth="1"/>
+    <col min="13585" max="13585" width="15.6640625" customWidth="1"/>
     <col min="13586" max="13586" width="23" customWidth="1"/>
-    <col min="13587" max="13587" width="15.7109375" customWidth="1"/>
-    <col min="13588" max="13588" width="22.42578125" customWidth="1"/>
-    <col min="13589" max="13591" width="15.7109375" customWidth="1"/>
-    <col min="13825" max="13837" width="15.7109375" customWidth="1"/>
-    <col min="13838" max="13838" width="17.5703125" customWidth="1"/>
-    <col min="13839" max="13839" width="16.85546875" customWidth="1"/>
-    <col min="13840" max="13840" width="17.5703125" customWidth="1"/>
-    <col min="13841" max="13841" width="15.7109375" customWidth="1"/>
+    <col min="13587" max="13587" width="15.6640625" customWidth="1"/>
+    <col min="13588" max="13588" width="22.44140625" customWidth="1"/>
+    <col min="13589" max="13591" width="15.6640625" customWidth="1"/>
+    <col min="13825" max="13837" width="15.6640625" customWidth="1"/>
+    <col min="13838" max="13838" width="17.5546875" customWidth="1"/>
+    <col min="13839" max="13839" width="16.88671875" customWidth="1"/>
+    <col min="13840" max="13840" width="17.5546875" customWidth="1"/>
+    <col min="13841" max="13841" width="15.6640625" customWidth="1"/>
     <col min="13842" max="13842" width="23" customWidth="1"/>
-    <col min="13843" max="13843" width="15.7109375" customWidth="1"/>
-    <col min="13844" max="13844" width="22.42578125" customWidth="1"/>
-    <col min="13845" max="13847" width="15.7109375" customWidth="1"/>
-    <col min="14081" max="14093" width="15.7109375" customWidth="1"/>
-    <col min="14094" max="14094" width="17.5703125" customWidth="1"/>
-    <col min="14095" max="14095" width="16.85546875" customWidth="1"/>
-    <col min="14096" max="14096" width="17.5703125" customWidth="1"/>
-    <col min="14097" max="14097" width="15.7109375" customWidth="1"/>
+    <col min="13843" max="13843" width="15.6640625" customWidth="1"/>
+    <col min="13844" max="13844" width="22.44140625" customWidth="1"/>
+    <col min="13845" max="13847" width="15.6640625" customWidth="1"/>
+    <col min="14081" max="14093" width="15.6640625" customWidth="1"/>
+    <col min="14094" max="14094" width="17.5546875" customWidth="1"/>
+    <col min="14095" max="14095" width="16.88671875" customWidth="1"/>
+    <col min="14096" max="14096" width="17.5546875" customWidth="1"/>
+    <col min="14097" max="14097" width="15.6640625" customWidth="1"/>
     <col min="14098" max="14098" width="23" customWidth="1"/>
-    <col min="14099" max="14099" width="15.7109375" customWidth="1"/>
-    <col min="14100" max="14100" width="22.42578125" customWidth="1"/>
-    <col min="14101" max="14103" width="15.7109375" customWidth="1"/>
-    <col min="14337" max="14349" width="15.7109375" customWidth="1"/>
-    <col min="14350" max="14350" width="17.5703125" customWidth="1"/>
-    <col min="14351" max="14351" width="16.85546875" customWidth="1"/>
-    <col min="14352" max="14352" width="17.5703125" customWidth="1"/>
-    <col min="14353" max="14353" width="15.7109375" customWidth="1"/>
+    <col min="14099" max="14099" width="15.6640625" customWidth="1"/>
+    <col min="14100" max="14100" width="22.44140625" customWidth="1"/>
+    <col min="14101" max="14103" width="15.6640625" customWidth="1"/>
+    <col min="14337" max="14349" width="15.6640625" customWidth="1"/>
+    <col min="14350" max="14350" width="17.5546875" customWidth="1"/>
+    <col min="14351" max="14351" width="16.88671875" customWidth="1"/>
+    <col min="14352" max="14352" width="17.5546875" customWidth="1"/>
+    <col min="14353" max="14353" width="15.6640625" customWidth="1"/>
     <col min="14354" max="14354" width="23" customWidth="1"/>
-    <col min="14355" max="14355" width="15.7109375" customWidth="1"/>
-    <col min="14356" max="14356" width="22.42578125" customWidth="1"/>
-    <col min="14357" max="14359" width="15.7109375" customWidth="1"/>
-    <col min="14593" max="14605" width="15.7109375" customWidth="1"/>
-    <col min="14606" max="14606" width="17.5703125" customWidth="1"/>
-    <col min="14607" max="14607" width="16.85546875" customWidth="1"/>
-    <col min="14608" max="14608" width="17.5703125" customWidth="1"/>
-    <col min="14609" max="14609" width="15.7109375" customWidth="1"/>
+    <col min="14355" max="14355" width="15.6640625" customWidth="1"/>
+    <col min="14356" max="14356" width="22.44140625" customWidth="1"/>
+    <col min="14357" max="14359" width="15.6640625" customWidth="1"/>
+    <col min="14593" max="14605" width="15.6640625" customWidth="1"/>
+    <col min="14606" max="14606" width="17.5546875" customWidth="1"/>
+    <col min="14607" max="14607" width="16.88671875" customWidth="1"/>
+    <col min="14608" max="14608" width="17.5546875" customWidth="1"/>
+    <col min="14609" max="14609" width="15.6640625" customWidth="1"/>
     <col min="14610" max="14610" width="23" customWidth="1"/>
-    <col min="14611" max="14611" width="15.7109375" customWidth="1"/>
-    <col min="14612" max="14612" width="22.42578125" customWidth="1"/>
-    <col min="14613" max="14615" width="15.7109375" customWidth="1"/>
-    <col min="14849" max="14861" width="15.7109375" customWidth="1"/>
-    <col min="14862" max="14862" width="17.5703125" customWidth="1"/>
-    <col min="14863" max="14863" width="16.85546875" customWidth="1"/>
-    <col min="14864" max="14864" width="17.5703125" customWidth="1"/>
-    <col min="14865" max="14865" width="15.7109375" customWidth="1"/>
+    <col min="14611" max="14611" width="15.6640625" customWidth="1"/>
+    <col min="14612" max="14612" width="22.44140625" customWidth="1"/>
+    <col min="14613" max="14615" width="15.6640625" customWidth="1"/>
+    <col min="14849" max="14861" width="15.6640625" customWidth="1"/>
+    <col min="14862" max="14862" width="17.5546875" customWidth="1"/>
+    <col min="14863" max="14863" width="16.88671875" customWidth="1"/>
+    <col min="14864" max="14864" width="17.5546875" customWidth="1"/>
+    <col min="14865" max="14865" width="15.6640625" customWidth="1"/>
     <col min="14866" max="14866" width="23" customWidth="1"/>
-    <col min="14867" max="14867" width="15.7109375" customWidth="1"/>
-    <col min="14868" max="14868" width="22.42578125" customWidth="1"/>
-    <col min="14869" max="14871" width="15.7109375" customWidth="1"/>
-    <col min="15105" max="15117" width="15.7109375" customWidth="1"/>
-    <col min="15118" max="15118" width="17.5703125" customWidth="1"/>
-    <col min="15119" max="15119" width="16.85546875" customWidth="1"/>
-    <col min="15120" max="15120" width="17.5703125" customWidth="1"/>
-    <col min="15121" max="15121" width="15.7109375" customWidth="1"/>
+    <col min="14867" max="14867" width="15.6640625" customWidth="1"/>
+    <col min="14868" max="14868" width="22.44140625" customWidth="1"/>
+    <col min="14869" max="14871" width="15.6640625" customWidth="1"/>
+    <col min="15105" max="15117" width="15.6640625" customWidth="1"/>
+    <col min="15118" max="15118" width="17.5546875" customWidth="1"/>
+    <col min="15119" max="15119" width="16.88671875" customWidth="1"/>
+    <col min="15120" max="15120" width="17.5546875" customWidth="1"/>
+    <col min="15121" max="15121" width="15.6640625" customWidth="1"/>
     <col min="15122" max="15122" width="23" customWidth="1"/>
-    <col min="15123" max="15123" width="15.7109375" customWidth="1"/>
-    <col min="15124" max="15124" width="22.42578125" customWidth="1"/>
-    <col min="15125" max="15127" width="15.7109375" customWidth="1"/>
-    <col min="15361" max="15373" width="15.7109375" customWidth="1"/>
-    <col min="15374" max="15374" width="17.5703125" customWidth="1"/>
-    <col min="15375" max="15375" width="16.85546875" customWidth="1"/>
-    <col min="15376" max="15376" width="17.5703125" customWidth="1"/>
-    <col min="15377" max="15377" width="15.7109375" customWidth="1"/>
+    <col min="15123" max="15123" width="15.6640625" customWidth="1"/>
+    <col min="15124" max="15124" width="22.44140625" customWidth="1"/>
+    <col min="15125" max="15127" width="15.6640625" customWidth="1"/>
+    <col min="15361" max="15373" width="15.6640625" customWidth="1"/>
+    <col min="15374" max="15374" width="17.5546875" customWidth="1"/>
+    <col min="15375" max="15375" width="16.88671875" customWidth="1"/>
+    <col min="15376" max="15376" width="17.5546875" customWidth="1"/>
+    <col min="15377" max="15377" width="15.6640625" customWidth="1"/>
     <col min="15378" max="15378" width="23" customWidth="1"/>
-    <col min="15379" max="15379" width="15.7109375" customWidth="1"/>
-    <col min="15380" max="15380" width="22.42578125" customWidth="1"/>
-    <col min="15381" max="15383" width="15.7109375" customWidth="1"/>
-    <col min="15617" max="15629" width="15.7109375" customWidth="1"/>
-    <col min="15630" max="15630" width="17.5703125" customWidth="1"/>
-    <col min="15631" max="15631" width="16.85546875" customWidth="1"/>
-    <col min="15632" max="15632" width="17.5703125" customWidth="1"/>
-    <col min="15633" max="15633" width="15.7109375" customWidth="1"/>
+    <col min="15379" max="15379" width="15.6640625" customWidth="1"/>
+    <col min="15380" max="15380" width="22.44140625" customWidth="1"/>
+    <col min="15381" max="15383" width="15.6640625" customWidth="1"/>
+    <col min="15617" max="15629" width="15.6640625" customWidth="1"/>
+    <col min="15630" max="15630" width="17.5546875" customWidth="1"/>
+    <col min="15631" max="15631" width="16.88671875" customWidth="1"/>
+    <col min="15632" max="15632" width="17.5546875" customWidth="1"/>
+    <col min="15633" max="15633" width="15.6640625" customWidth="1"/>
     <col min="15634" max="15634" width="23" customWidth="1"/>
-    <col min="15635" max="15635" width="15.7109375" customWidth="1"/>
-    <col min="15636" max="15636" width="22.42578125" customWidth="1"/>
-    <col min="15637" max="15639" width="15.7109375" customWidth="1"/>
-    <col min="15873" max="15885" width="15.7109375" customWidth="1"/>
-    <col min="15886" max="15886" width="17.5703125" customWidth="1"/>
-    <col min="15887" max="15887" width="16.85546875" customWidth="1"/>
-    <col min="15888" max="15888" width="17.5703125" customWidth="1"/>
-    <col min="15889" max="15889" width="15.7109375" customWidth="1"/>
+    <col min="15635" max="15635" width="15.6640625" customWidth="1"/>
+    <col min="15636" max="15636" width="22.44140625" customWidth="1"/>
+    <col min="15637" max="15639" width="15.6640625" customWidth="1"/>
+    <col min="15873" max="15885" width="15.6640625" customWidth="1"/>
+    <col min="15886" max="15886" width="17.5546875" customWidth="1"/>
+    <col min="15887" max="15887" width="16.88671875" customWidth="1"/>
+    <col min="15888" max="15888" width="17.5546875" customWidth="1"/>
+    <col min="15889" max="15889" width="15.6640625" customWidth="1"/>
     <col min="15890" max="15890" width="23" customWidth="1"/>
-    <col min="15891" max="15891" width="15.7109375" customWidth="1"/>
-    <col min="15892" max="15892" width="22.42578125" customWidth="1"/>
-    <col min="15893" max="15895" width="15.7109375" customWidth="1"/>
-    <col min="16129" max="16141" width="15.7109375" customWidth="1"/>
-    <col min="16142" max="16142" width="17.5703125" customWidth="1"/>
-    <col min="16143" max="16143" width="16.85546875" customWidth="1"/>
-    <col min="16144" max="16144" width="17.5703125" customWidth="1"/>
-    <col min="16145" max="16145" width="15.7109375" customWidth="1"/>
+    <col min="15891" max="15891" width="15.6640625" customWidth="1"/>
+    <col min="15892" max="15892" width="22.44140625" customWidth="1"/>
+    <col min="15893" max="15895" width="15.6640625" customWidth="1"/>
+    <col min="16129" max="16141" width="15.6640625" customWidth="1"/>
+    <col min="16142" max="16142" width="17.5546875" customWidth="1"/>
+    <col min="16143" max="16143" width="16.88671875" customWidth="1"/>
+    <col min="16144" max="16144" width="17.5546875" customWidth="1"/>
+    <col min="16145" max="16145" width="15.6640625" customWidth="1"/>
     <col min="16146" max="16146" width="23" customWidth="1"/>
-    <col min="16147" max="16147" width="15.7109375" customWidth="1"/>
-    <col min="16148" max="16148" width="22.42578125" customWidth="1"/>
-    <col min="16149" max="16151" width="15.7109375" customWidth="1"/>
+    <col min="16147" max="16147" width="15.6640625" customWidth="1"/>
+    <col min="16148" max="16148" width="22.44140625" customWidth="1"/>
+    <col min="16149" max="16151" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="39" t="s">
+    <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="41">
+    <row r="3" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="50">
         <v>1020</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="37"/>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="36">
+    <row r="4" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="35">
         <v>1</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>2</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>3</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>4</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>5</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>6</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>7</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="35">
         <v>8</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>9</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>10</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>11</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>12</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <v>13</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <v>14</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>15</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>16</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <v>17</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <v>18</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="35">
         <v>19</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="35">
         <v>20</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="35">
         <v>21</v>
       </c>
-      <c r="W4" s="36">
+      <c r="W4" s="35">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>166</v>
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>55</v>
@@ -12026,21 +10575,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="44"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="30" t="s">
         <v>69</v>
       </c>
@@ -12075,7 +10624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>5</v>
       </c>
@@ -12146,7 +10695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>6</v>
       </c>
@@ -12217,7 +10766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>7</v>
       </c>
@@ -12288,19 +10837,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="153" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="153" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
@@ -12320,81 +10869,81 @@
   </sheetPr>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="41" width="16.140625" customWidth="1"/>
-    <col min="257" max="297" width="16.140625" customWidth="1"/>
-    <col min="513" max="553" width="16.140625" customWidth="1"/>
-    <col min="769" max="809" width="16.140625" customWidth="1"/>
-    <col min="1025" max="1065" width="16.140625" customWidth="1"/>
-    <col min="1281" max="1321" width="16.140625" customWidth="1"/>
-    <col min="1537" max="1577" width="16.140625" customWidth="1"/>
-    <col min="1793" max="1833" width="16.140625" customWidth="1"/>
-    <col min="2049" max="2089" width="16.140625" customWidth="1"/>
-    <col min="2305" max="2345" width="16.140625" customWidth="1"/>
-    <col min="2561" max="2601" width="16.140625" customWidth="1"/>
-    <col min="2817" max="2857" width="16.140625" customWidth="1"/>
-    <col min="3073" max="3113" width="16.140625" customWidth="1"/>
-    <col min="3329" max="3369" width="16.140625" customWidth="1"/>
-    <col min="3585" max="3625" width="16.140625" customWidth="1"/>
-    <col min="3841" max="3881" width="16.140625" customWidth="1"/>
-    <col min="4097" max="4137" width="16.140625" customWidth="1"/>
-    <col min="4353" max="4393" width="16.140625" customWidth="1"/>
-    <col min="4609" max="4649" width="16.140625" customWidth="1"/>
-    <col min="4865" max="4905" width="16.140625" customWidth="1"/>
-    <col min="5121" max="5161" width="16.140625" customWidth="1"/>
-    <col min="5377" max="5417" width="16.140625" customWidth="1"/>
-    <col min="5633" max="5673" width="16.140625" customWidth="1"/>
-    <col min="5889" max="5929" width="16.140625" customWidth="1"/>
-    <col min="6145" max="6185" width="16.140625" customWidth="1"/>
-    <col min="6401" max="6441" width="16.140625" customWidth="1"/>
-    <col min="6657" max="6697" width="16.140625" customWidth="1"/>
-    <col min="6913" max="6953" width="16.140625" customWidth="1"/>
-    <col min="7169" max="7209" width="16.140625" customWidth="1"/>
-    <col min="7425" max="7465" width="16.140625" customWidth="1"/>
-    <col min="7681" max="7721" width="16.140625" customWidth="1"/>
-    <col min="7937" max="7977" width="16.140625" customWidth="1"/>
-    <col min="8193" max="8233" width="16.140625" customWidth="1"/>
-    <col min="8449" max="8489" width="16.140625" customWidth="1"/>
-    <col min="8705" max="8745" width="16.140625" customWidth="1"/>
-    <col min="8961" max="9001" width="16.140625" customWidth="1"/>
-    <col min="9217" max="9257" width="16.140625" customWidth="1"/>
-    <col min="9473" max="9513" width="16.140625" customWidth="1"/>
-    <col min="9729" max="9769" width="16.140625" customWidth="1"/>
-    <col min="9985" max="10025" width="16.140625" customWidth="1"/>
-    <col min="10241" max="10281" width="16.140625" customWidth="1"/>
-    <col min="10497" max="10537" width="16.140625" customWidth="1"/>
-    <col min="10753" max="10793" width="16.140625" customWidth="1"/>
-    <col min="11009" max="11049" width="16.140625" customWidth="1"/>
-    <col min="11265" max="11305" width="16.140625" customWidth="1"/>
-    <col min="11521" max="11561" width="16.140625" customWidth="1"/>
-    <col min="11777" max="11817" width="16.140625" customWidth="1"/>
-    <col min="12033" max="12073" width="16.140625" customWidth="1"/>
-    <col min="12289" max="12329" width="16.140625" customWidth="1"/>
-    <col min="12545" max="12585" width="16.140625" customWidth="1"/>
-    <col min="12801" max="12841" width="16.140625" customWidth="1"/>
-    <col min="13057" max="13097" width="16.140625" customWidth="1"/>
-    <col min="13313" max="13353" width="16.140625" customWidth="1"/>
-    <col min="13569" max="13609" width="16.140625" customWidth="1"/>
-    <col min="13825" max="13865" width="16.140625" customWidth="1"/>
-    <col min="14081" max="14121" width="16.140625" customWidth="1"/>
-    <col min="14337" max="14377" width="16.140625" customWidth="1"/>
-    <col min="14593" max="14633" width="16.140625" customWidth="1"/>
-    <col min="14849" max="14889" width="16.140625" customWidth="1"/>
-    <col min="15105" max="15145" width="16.140625" customWidth="1"/>
-    <col min="15361" max="15401" width="16.140625" customWidth="1"/>
-    <col min="15617" max="15657" width="16.140625" customWidth="1"/>
-    <col min="15873" max="15913" width="16.140625" customWidth="1"/>
-    <col min="16129" max="16169" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="41" width="16.109375" customWidth="1"/>
+    <col min="257" max="297" width="16.109375" customWidth="1"/>
+    <col min="513" max="553" width="16.109375" customWidth="1"/>
+    <col min="769" max="809" width="16.109375" customWidth="1"/>
+    <col min="1025" max="1065" width="16.109375" customWidth="1"/>
+    <col min="1281" max="1321" width="16.109375" customWidth="1"/>
+    <col min="1537" max="1577" width="16.109375" customWidth="1"/>
+    <col min="1793" max="1833" width="16.109375" customWidth="1"/>
+    <col min="2049" max="2089" width="16.109375" customWidth="1"/>
+    <col min="2305" max="2345" width="16.109375" customWidth="1"/>
+    <col min="2561" max="2601" width="16.109375" customWidth="1"/>
+    <col min="2817" max="2857" width="16.109375" customWidth="1"/>
+    <col min="3073" max="3113" width="16.109375" customWidth="1"/>
+    <col min="3329" max="3369" width="16.109375" customWidth="1"/>
+    <col min="3585" max="3625" width="16.109375" customWidth="1"/>
+    <col min="3841" max="3881" width="16.109375" customWidth="1"/>
+    <col min="4097" max="4137" width="16.109375" customWidth="1"/>
+    <col min="4353" max="4393" width="16.109375" customWidth="1"/>
+    <col min="4609" max="4649" width="16.109375" customWidth="1"/>
+    <col min="4865" max="4905" width="16.109375" customWidth="1"/>
+    <col min="5121" max="5161" width="16.109375" customWidth="1"/>
+    <col min="5377" max="5417" width="16.109375" customWidth="1"/>
+    <col min="5633" max="5673" width="16.109375" customWidth="1"/>
+    <col min="5889" max="5929" width="16.109375" customWidth="1"/>
+    <col min="6145" max="6185" width="16.109375" customWidth="1"/>
+    <col min="6401" max="6441" width="16.109375" customWidth="1"/>
+    <col min="6657" max="6697" width="16.109375" customWidth="1"/>
+    <col min="6913" max="6953" width="16.109375" customWidth="1"/>
+    <col min="7169" max="7209" width="16.109375" customWidth="1"/>
+    <col min="7425" max="7465" width="16.109375" customWidth="1"/>
+    <col min="7681" max="7721" width="16.109375" customWidth="1"/>
+    <col min="7937" max="7977" width="16.109375" customWidth="1"/>
+    <col min="8193" max="8233" width="16.109375" customWidth="1"/>
+    <col min="8449" max="8489" width="16.109375" customWidth="1"/>
+    <col min="8705" max="8745" width="16.109375" customWidth="1"/>
+    <col min="8961" max="9001" width="16.109375" customWidth="1"/>
+    <col min="9217" max="9257" width="16.109375" customWidth="1"/>
+    <col min="9473" max="9513" width="16.109375" customWidth="1"/>
+    <col min="9729" max="9769" width="16.109375" customWidth="1"/>
+    <col min="9985" max="10025" width="16.109375" customWidth="1"/>
+    <col min="10241" max="10281" width="16.109375" customWidth="1"/>
+    <col min="10497" max="10537" width="16.109375" customWidth="1"/>
+    <col min="10753" max="10793" width="16.109375" customWidth="1"/>
+    <col min="11009" max="11049" width="16.109375" customWidth="1"/>
+    <col min="11265" max="11305" width="16.109375" customWidth="1"/>
+    <col min="11521" max="11561" width="16.109375" customWidth="1"/>
+    <col min="11777" max="11817" width="16.109375" customWidth="1"/>
+    <col min="12033" max="12073" width="16.109375" customWidth="1"/>
+    <col min="12289" max="12329" width="16.109375" customWidth="1"/>
+    <col min="12545" max="12585" width="16.109375" customWidth="1"/>
+    <col min="12801" max="12841" width="16.109375" customWidth="1"/>
+    <col min="13057" max="13097" width="16.109375" customWidth="1"/>
+    <col min="13313" max="13353" width="16.109375" customWidth="1"/>
+    <col min="13569" max="13609" width="16.109375" customWidth="1"/>
+    <col min="13825" max="13865" width="16.109375" customWidth="1"/>
+    <col min="14081" max="14121" width="16.109375" customWidth="1"/>
+    <col min="14337" max="14377" width="16.109375" customWidth="1"/>
+    <col min="14593" max="14633" width="16.109375" customWidth="1"/>
+    <col min="14849" max="14889" width="16.109375" customWidth="1"/>
+    <col min="15105" max="15145" width="16.109375" customWidth="1"/>
+    <col min="15361" max="15401" width="16.109375" customWidth="1"/>
+    <col min="15617" max="15657" width="16.109375" customWidth="1"/>
+    <col min="15873" max="15913" width="16.109375" customWidth="1"/>
+    <col min="16129" max="16169" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12425,13 +10974,13 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -12458,13 +11007,13 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -12491,7 +11040,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -12576,7 +11125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>1</v>
@@ -12663,7 +11212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6">
         <v>2</v>
@@ -12750,7 +11299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>3</v>
@@ -12809,10 +11358,10 @@
       <c r="T7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="47" t="s">
+      <c r="U7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="48"/>
+      <c r="V7" s="47"/>
       <c r="W7" s="1" t="s">
         <v>45</v>
       </c>
@@ -12835,7 +11384,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -12921,7 +11470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -13007,7 +11556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -13093,7 +11642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -13179,7 +11728,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>8</v>
       </c>
@@ -13265,7 +11814,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>9</v>
       </c>
@@ -13347,33 +11896,33 @@
       <c r="AB13" s="24"/>
       <c r="AC13" s="24"/>
     </row>
-    <row r="14" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="149.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="149.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:D2"/>

--- a/ExcelPln2/Input/supplier_input.xlsx
+++ b/ExcelPln2/Input/supplier_input.xlsx
@@ -18,6 +18,7 @@
     <sheet name="A 170 cm" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1136,12 +1137,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,6 +1160,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -9622,7 +9623,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="I6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9692,8 +9693,8 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="50" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10278,16 +10279,16 @@
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:23" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="50">
+      <c r="C3" s="48">
         <v>1020</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="37"/>
       <c r="N3" t="s">
         <v>164</v>
@@ -10579,17 +10580,17 @@
       <c r="A8" s="31">
         <v>4</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
       <c r="M8" s="30" t="s">
         <v>69</v>
       </c>
@@ -10977,10 +10978,10 @@
     <row r="2" spans="1:29" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -11010,10 +11011,10 @@
     <row r="3" spans="1:29" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -11358,10 +11359,10 @@
       <c r="T7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="46" t="s">
+      <c r="U7" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="47"/>
+      <c r="V7" s="55"/>
       <c r="W7" s="1" t="s">
         <v>45</v>
       </c>
